--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_1_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_1_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2446686.256839195</v>
+        <v>-2448393.822294627</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -668,61 +668,61 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>196.9826481283071</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>20.78713423829504</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>62.60564147424729</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>39.53671944836363</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -856,16 +856,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>84.7768974117013</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,16 +908,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.28796821707176</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="H5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>209.9064962068211</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>19.21956265260411</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
         <v>208.6835142066282</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>244.5627323611424</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118.9947151571974</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.5363898835276</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>152.2880288695848</v>
       </c>
     </row>
     <row r="7">
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>137.081565665098</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>137.081565665098</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>221.2006630000038</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>276.1565137023555</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>268.0607811825788</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1263,10 +1263,10 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>180.6731848129019</v>
+        <v>20.06364296467482</v>
       </c>
     </row>
     <row r="10">
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="U10" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.8803167085258</v>
+        <v>374.880316708526</v>
       </c>
       <c r="C11" t="n">
-        <v>357.4193668160528</v>
+        <v>357.419366816053</v>
       </c>
       <c r="D11" t="n">
-        <v>346.8295166657282</v>
+        <v>346.8295166657284</v>
       </c>
       <c r="E11" t="n">
-        <v>254.6929478153546</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>254.6929478153515</v>
       </c>
       <c r="I11" t="n">
-        <v>115.4624951772042</v>
+        <v>115.4624951772044</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>149.6483415361851</v>
+        <v>149.6483415361853</v>
       </c>
       <c r="T11" t="n">
-        <v>205.3456297523988</v>
+        <v>205.345629752399</v>
       </c>
       <c r="U11" t="n">
-        <v>243.3112631696625</v>
+        <v>243.3112631696627</v>
       </c>
       <c r="V11" t="n">
-        <v>319.8987335151801</v>
+        <v>319.8987335151804</v>
       </c>
       <c r="W11" t="n">
-        <v>341.3874437624582</v>
+        <v>341.3874437624585</v>
       </c>
       <c r="X11" t="n">
-        <v>361.8775757235143</v>
+        <v>361.8775757235145</v>
       </c>
       <c r="Y11" t="n">
-        <v>378.3844137010988</v>
+        <v>378.384413701099</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I12" t="n">
-        <v>47.74894400914857</v>
+        <v>47.74894400914855</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.05405284676736</v>
+        <v>25.05405284676733</v>
       </c>
       <c r="S12" t="n">
-        <v>149.2146408812903</v>
+        <v>149.2146408812902</v>
       </c>
       <c r="T12" t="n">
         <v>195.2890311093384</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>123.8412787319816</v>
+        <v>123.8412787319819</v>
       </c>
       <c r="S13" t="n">
-        <v>198.4897021555766</v>
+        <v>198.4897021555768</v>
       </c>
       <c r="T13" t="n">
-        <v>215.7590001355973</v>
+        <v>148.1861318638981</v>
       </c>
       <c r="U13" t="n">
-        <v>278.4101886865864</v>
+        <v>278.4101886865866</v>
       </c>
       <c r="V13" t="n">
-        <v>176.7112500971759</v>
+        <v>244.2841183688735</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>316.135235180243</v>
+        <v>316.1352351802439</v>
       </c>
       <c r="C14" t="n">
-        <v>298.67428528777</v>
+        <v>298.6742852877708</v>
       </c>
       <c r="D14" t="n">
-        <v>288.0844351374454</v>
+        <v>288.0844351374462</v>
       </c>
       <c r="E14" t="n">
-        <v>315.3317635890242</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>340.2774392584747</v>
       </c>
       <c r="G14" t="n">
-        <v>335.8344036692123</v>
+        <v>310.8887279997517</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7226773682291</v>
+        <v>249.7226773682299</v>
       </c>
       <c r="I14" t="n">
-        <v>56.71741364892138</v>
+        <v>56.71741364892223</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>90.90326000790232</v>
+        <v>90.90326000790317</v>
       </c>
       <c r="T14" t="n">
-        <v>146.600548224116</v>
+        <v>146.6005482241168</v>
       </c>
       <c r="U14" t="n">
-        <v>184.5661816413797</v>
+        <v>184.5661816413805</v>
       </c>
       <c r="V14" t="n">
-        <v>261.1536519868973</v>
+        <v>261.1536519868982</v>
       </c>
       <c r="W14" t="n">
-        <v>282.6423622341754</v>
+        <v>282.6423622341763</v>
       </c>
       <c r="X14" t="n">
-        <v>303.1324941952315</v>
+        <v>303.1324941952323</v>
       </c>
       <c r="Y14" t="n">
-        <v>319.639332172816</v>
+        <v>319.6393321728169</v>
       </c>
     </row>
     <row r="15">
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>113.2333736986997</v>
+        <v>113.2333736987006</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.01686653497563</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>78.82244153969452</v>
       </c>
       <c r="G16" t="n">
-        <v>28.97360864802275</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>65.09619720369884</v>
+        <v>65.09619720369969</v>
       </c>
       <c r="S16" t="n">
-        <v>139.7446206272938</v>
+        <v>139.7446206272946</v>
       </c>
       <c r="T16" t="n">
-        <v>157.0139186073145</v>
+        <v>157.0139186073154</v>
       </c>
       <c r="U16" t="n">
-        <v>219.6651071583036</v>
+        <v>219.6651071583044</v>
       </c>
       <c r="V16" t="n">
-        <v>185.5390368405904</v>
+        <v>185.5390368405913</v>
       </c>
       <c r="W16" t="n">
-        <v>219.9243918533534</v>
+        <v>219.9243918533543</v>
       </c>
       <c r="X16" t="n">
-        <v>159.1110489057996</v>
+        <v>159.1110489058004</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.9860468688572</v>
+        <v>20.12034744219646</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>292.742811391515</v>
+        <v>292.7428113915151</v>
       </c>
       <c r="C17" t="n">
         <v>275.2818614990421</v>
       </c>
       <c r="D17" t="n">
-        <v>264.6920113487174</v>
+        <v>264.6920113487175</v>
       </c>
       <c r="E17" t="n">
-        <v>291.9393398002962</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F17" t="n">
-        <v>316.8850154697459</v>
+        <v>316.885015469746</v>
       </c>
       <c r="G17" t="n">
-        <v>323.050897452929</v>
+        <v>323.0508974529291</v>
       </c>
       <c r="H17" t="n">
         <v>226.3302535795011</v>
       </c>
       <c r="I17" t="n">
-        <v>33.32498986019349</v>
+        <v>33.32498986019347</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.51083621917437</v>
+        <v>67.51083621917439</v>
       </c>
       <c r="T17" t="n">
-        <v>123.208124435388</v>
+        <v>123.2081244353881</v>
       </c>
       <c r="U17" t="n">
         <v>161.1737578526523</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.84094990997178</v>
+        <v>89.84094990997181</v>
       </c>
       <c r="C19" t="n">
-        <v>77.25579082666232</v>
+        <v>77.25579082666235</v>
       </c>
       <c r="D19" t="n">
-        <v>58.62444274624684</v>
+        <v>58.62444274624687</v>
       </c>
       <c r="E19" t="n">
-        <v>56.44293237460366</v>
+        <v>56.44293237460369</v>
       </c>
       <c r="F19" t="n">
-        <v>55.43001775096573</v>
+        <v>55.43001775096576</v>
       </c>
       <c r="G19" t="n">
-        <v>76.98582764574807</v>
+        <v>76.98582764574809</v>
       </c>
       <c r="H19" t="n">
-        <v>63.21968069866695</v>
+        <v>63.21968069866696</v>
       </c>
       <c r="I19" t="n">
-        <v>34.96204714633899</v>
+        <v>34.96204714633787</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.7037734149709</v>
+        <v>41.7037734149708</v>
       </c>
       <c r="S19" t="n">
         <v>116.3521968385658</v>
@@ -2056,7 +2056,7 @@
         <v>133.6214948185866</v>
       </c>
       <c r="U19" t="n">
-        <v>196.2726833695756</v>
+        <v>196.2726833695755</v>
       </c>
       <c r="V19" t="n">
         <v>162.1466130518625</v>
@@ -2065,7 +2065,7 @@
         <v>196.5319680646255</v>
       </c>
       <c r="X19" t="n">
-        <v>135.7186251170716</v>
+        <v>135.7186251170717</v>
       </c>
       <c r="Y19" t="n">
         <v>128.5936230801293</v>
@@ -2090,16 +2090,16 @@
         <v>291.9393398002962</v>
       </c>
       <c r="F20" t="n">
-        <v>316.8850154697458</v>
+        <v>316.8850154697459</v>
       </c>
       <c r="G20" t="n">
         <v>323.050897452929</v>
       </c>
       <c r="H20" t="n">
-        <v>226.330253579501</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I20" t="n">
-        <v>33.32498986019337</v>
+        <v>33.32498986019343</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.51083621917429</v>
+        <v>67.51083621917437</v>
       </c>
       <c r="T20" t="n">
         <v>123.208124435388</v>
       </c>
       <c r="U20" t="n">
-        <v>161.1737578526518</v>
+        <v>161.1737578526517</v>
       </c>
       <c r="V20" t="n">
-        <v>237.7612281981693</v>
+        <v>237.7612281981694</v>
       </c>
       <c r="W20" t="n">
-        <v>259.2499384454474</v>
+        <v>259.2499384454479</v>
       </c>
       <c r="X20" t="n">
-        <v>279.7400704065034</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y20" t="n">
         <v>296.246908384088</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.84094990997171</v>
+        <v>89.84094990997177</v>
       </c>
       <c r="C22" t="n">
-        <v>77.25579082666225</v>
+        <v>77.25579082666231</v>
       </c>
       <c r="D22" t="n">
-        <v>58.62444274624677</v>
+        <v>58.62444274624683</v>
       </c>
       <c r="E22" t="n">
-        <v>56.44293237460359</v>
+        <v>56.44293237460364</v>
       </c>
       <c r="F22" t="n">
-        <v>55.43001775096566</v>
+        <v>55.43001775096572</v>
       </c>
       <c r="G22" t="n">
-        <v>76.985827645748</v>
+        <v>76.98582764574806</v>
       </c>
       <c r="H22" t="n">
-        <v>63.21968069866688</v>
+        <v>63.21968069866693</v>
       </c>
       <c r="I22" t="n">
-        <v>34.962047146341</v>
+        <v>34.96204714633927</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.70377341497083</v>
+        <v>41.70377341497088</v>
       </c>
       <c r="S22" t="n">
-        <v>116.3521968385657</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T22" t="n">
-        <v>133.6214948185865</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U22" t="n">
         <v>196.2726833695756</v>
       </c>
       <c r="V22" t="n">
-        <v>162.1466130518624</v>
+        <v>162.1466130518625</v>
       </c>
       <c r="W22" t="n">
-        <v>196.5319680646254</v>
+        <v>196.5319680646255</v>
       </c>
       <c r="X22" t="n">
         <v>135.7186251170716</v>
@@ -2336,7 +2336,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I23" t="n">
-        <v>33.32498986019341</v>
+        <v>33.32498986019343</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>67.51083621917435</v>
+        <v>67.51083621917437</v>
       </c>
       <c r="T23" t="n">
         <v>123.208124435388</v>
       </c>
       <c r="U23" t="n">
-        <v>161.1737578526523</v>
+        <v>161.1737578526517</v>
       </c>
       <c r="V23" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981698</v>
       </c>
       <c r="W23" t="n">
         <v>259.2499384454475</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.84094990997176</v>
+        <v>89.84094990997177</v>
       </c>
       <c r="C25" t="n">
-        <v>77.25579082666229</v>
+        <v>77.25579082666231</v>
       </c>
       <c r="D25" t="n">
-        <v>58.62444274624681</v>
+        <v>58.62444274624683</v>
       </c>
       <c r="E25" t="n">
-        <v>56.44293237460363</v>
+        <v>56.44293237460364</v>
       </c>
       <c r="F25" t="n">
-        <v>55.4300177509657</v>
+        <v>55.43001775096572</v>
       </c>
       <c r="G25" t="n">
-        <v>76.98582764574805</v>
+        <v>76.98582764574806</v>
       </c>
       <c r="H25" t="n">
-        <v>63.21968069866847</v>
+        <v>63.21968069866838</v>
       </c>
       <c r="I25" t="n">
-        <v>34.96204714633781</v>
+        <v>34.96204714633782</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.70377341497087</v>
+        <v>41.70377341497088</v>
       </c>
       <c r="S25" t="n">
         <v>116.3521968385658</v>
@@ -2561,7 +2561,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E26" t="n">
-        <v>291.9393398002963</v>
+        <v>291.9393398002964</v>
       </c>
       <c r="F26" t="n">
         <v>316.885015469746</v>
@@ -2570,10 +2570,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H26" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795012</v>
       </c>
       <c r="I26" t="n">
-        <v>33.32498986019348</v>
+        <v>33.3249898601935</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917444</v>
       </c>
       <c r="T26" t="n">
         <v>123.2081244353881</v>
       </c>
       <c r="U26" t="n">
-        <v>161.1737578526518</v>
+        <v>161.1737578526514</v>
       </c>
       <c r="V26" t="n">
         <v>237.7612281981694</v>
       </c>
       <c r="W26" t="n">
-        <v>259.2499384454475</v>
+        <v>259.2499384454476</v>
       </c>
       <c r="X26" t="n">
-        <v>279.7400704065035</v>
+        <v>279.7400704065036</v>
       </c>
       <c r="Y26" t="n">
-        <v>296.2469083840879</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.84094990997183</v>
+        <v>89.84094990997184</v>
       </c>
       <c r="C28" t="n">
-        <v>77.25579082666236</v>
+        <v>77.25579082666238</v>
       </c>
       <c r="D28" t="n">
-        <v>58.62444274624688</v>
+        <v>58.6244427462469</v>
       </c>
       <c r="E28" t="n">
-        <v>56.4429323746037</v>
+        <v>56.44293237460371</v>
       </c>
       <c r="F28" t="n">
-        <v>55.43001775096577</v>
+        <v>55.43001775096579</v>
       </c>
       <c r="G28" t="n">
-        <v>76.9858276457481</v>
+        <v>76.98582764574813</v>
       </c>
       <c r="H28" t="n">
-        <v>63.21968069866698</v>
+        <v>63.21968069866701</v>
       </c>
       <c r="I28" t="n">
-        <v>34.96204714633788</v>
+        <v>34.96204714633789</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.70377341497094</v>
+        <v>41.70377341497095</v>
       </c>
       <c r="S28" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385655</v>
       </c>
       <c r="T28" t="n">
         <v>133.6214948185867</v>
       </c>
       <c r="U28" t="n">
-        <v>196.2726833695752</v>
+        <v>196.2726833695759</v>
       </c>
       <c r="V28" t="n">
         <v>162.1466130518625</v>
@@ -2792,7 +2792,7 @@
         <v>292.742811391515</v>
       </c>
       <c r="C29" t="n">
-        <v>275.2818614990421</v>
+        <v>275.281861499042</v>
       </c>
       <c r="D29" t="n">
         <v>264.6920113487174</v>
@@ -2801,16 +2801,16 @@
         <v>291.9393398002962</v>
       </c>
       <c r="F29" t="n">
-        <v>316.8850154697459</v>
+        <v>316.8850154697458</v>
       </c>
       <c r="G29" t="n">
         <v>323.050897452929</v>
       </c>
       <c r="H29" t="n">
-        <v>226.3302535795011</v>
+        <v>226.330253579501</v>
       </c>
       <c r="I29" t="n">
-        <v>33.32498986019344</v>
+        <v>33.32498986019337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>67.51083621917437</v>
+        <v>67.51083621917422</v>
       </c>
       <c r="T29" t="n">
         <v>123.208124435388</v>
       </c>
       <c r="U29" t="n">
-        <v>161.1737578526518</v>
+        <v>161.1737578526532</v>
       </c>
       <c r="V29" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981693</v>
       </c>
       <c r="W29" t="n">
-        <v>259.2499384454475</v>
+        <v>259.2499384454474</v>
       </c>
       <c r="X29" t="n">
-        <v>279.7400704065035</v>
+        <v>279.7400704065034</v>
       </c>
       <c r="Y29" t="n">
-        <v>296.2469083840881</v>
+        <v>296.246908384088</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.84094990997178</v>
+        <v>89.84094990997171</v>
       </c>
       <c r="C31" t="n">
-        <v>77.25579082666232</v>
+        <v>77.25579082666225</v>
       </c>
       <c r="D31" t="n">
-        <v>58.62444274624684</v>
+        <v>58.62444274624677</v>
       </c>
       <c r="E31" t="n">
-        <v>56.44293237460366</v>
+        <v>56.44293237460359</v>
       </c>
       <c r="F31" t="n">
-        <v>55.43001775096573</v>
+        <v>55.43001775096566</v>
       </c>
       <c r="G31" t="n">
-        <v>76.98582764574807</v>
+        <v>76.985827645748</v>
       </c>
       <c r="H31" t="n">
-        <v>63.21968069866695</v>
+        <v>63.2196806986701</v>
       </c>
       <c r="I31" t="n">
-        <v>34.96204714633899</v>
+        <v>34.96204714633777</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.7037734149709</v>
+        <v>41.70377341497083</v>
       </c>
       <c r="S31" t="n">
-        <v>116.3521968385658</v>
+        <v>116.3521968385657</v>
       </c>
       <c r="T31" t="n">
-        <v>133.6214948185866</v>
+        <v>133.6214948185865</v>
       </c>
       <c r="U31" t="n">
         <v>196.2726833695756</v>
       </c>
       <c r="V31" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518624</v>
       </c>
       <c r="W31" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646254</v>
       </c>
       <c r="X31" t="n">
         <v>135.7186251170716</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801292</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.51083621917441</v>
+        <v>67.51083621917442</v>
       </c>
       <c r="T32" t="n">
         <v>123.2081244353881</v>
@@ -3095,7 +3095,7 @@
         <v>279.7400704065035</v>
       </c>
       <c r="Y32" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840879</v>
       </c>
     </row>
     <row r="33">
@@ -3205,7 +3205,7 @@
         <v>63.21968069866698</v>
       </c>
       <c r="I34" t="n">
-        <v>34.96204714633788</v>
+        <v>34.96204714633777</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.70377341497094</v>
+        <v>41.70377341497103</v>
       </c>
       <c r="S34" t="n">
-        <v>116.3521968385653</v>
+        <v>116.3521968385659</v>
       </c>
       <c r="T34" t="n">
         <v>133.6214948185867</v>
       </c>
       <c r="U34" t="n">
-        <v>196.2726833695759</v>
+        <v>196.2726833695756</v>
       </c>
       <c r="V34" t="n">
         <v>162.1466130518625</v>
@@ -3272,7 +3272,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E35" t="n">
-        <v>291.9393398002963</v>
+        <v>291.9393398002964</v>
       </c>
       <c r="F35" t="n">
         <v>316.885015469746</v>
@@ -3281,10 +3281,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H35" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795012</v>
       </c>
       <c r="I35" t="n">
-        <v>33.32498986019348</v>
+        <v>33.32498986019353</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.51083621917422</v>
+        <v>67.51083621917445</v>
       </c>
       <c r="T35" t="n">
-        <v>123.2081244353881</v>
+        <v>123.2081244353886</v>
       </c>
       <c r="U35" t="n">
-        <v>161.1737578526518</v>
+        <v>161.1737578526523</v>
       </c>
       <c r="V35" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981695</v>
       </c>
       <c r="W35" t="n">
-        <v>259.2499384454475</v>
+        <v>259.2499384454476</v>
       </c>
       <c r="X35" t="n">
-        <v>279.7400704065035</v>
+        <v>279.7400704065036</v>
       </c>
       <c r="Y35" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840882</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.84094990997183</v>
+        <v>89.84094990997187</v>
       </c>
       <c r="C37" t="n">
-        <v>77.25579082666236</v>
+        <v>77.25579082666241</v>
       </c>
       <c r="D37" t="n">
-        <v>58.62444274624688</v>
+        <v>58.62444274624693</v>
       </c>
       <c r="E37" t="n">
-        <v>56.4429323746037</v>
+        <v>56.44293237460374</v>
       </c>
       <c r="F37" t="n">
-        <v>55.43001775096577</v>
+        <v>55.43001775096582</v>
       </c>
       <c r="G37" t="n">
-        <v>76.9858276457481</v>
+        <v>76.98582764574815</v>
       </c>
       <c r="H37" t="n">
-        <v>63.21968069866698</v>
+        <v>63.21968069866702</v>
       </c>
       <c r="I37" t="n">
-        <v>34.96204714633769</v>
+        <v>34.96204714633792</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>133.6214948185867</v>
       </c>
       <c r="U37" t="n">
-        <v>196.2726833695759</v>
+        <v>196.2726833695757</v>
       </c>
       <c r="V37" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W37" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646256</v>
       </c>
       <c r="X37" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y37" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801294</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>292.7428113915159</v>
+        <v>292.7428113915151</v>
       </c>
       <c r="C38" t="n">
         <v>275.2818614990421</v>
       </c>
       <c r="D38" t="n">
-        <v>264.6920113487174</v>
+        <v>264.6920113487175</v>
       </c>
       <c r="E38" t="n">
-        <v>291.9393398002962</v>
+        <v>291.9393398002964</v>
       </c>
       <c r="F38" t="n">
-        <v>316.8850154697459</v>
+        <v>316.885015469746</v>
       </c>
       <c r="G38" t="n">
-        <v>323.050897452929</v>
+        <v>323.0508974529291</v>
       </c>
       <c r="H38" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795012</v>
       </c>
       <c r="I38" t="n">
-        <v>33.32498986019344</v>
+        <v>33.32498986019353</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.51083621917438</v>
+        <v>67.51083621917445</v>
       </c>
       <c r="T38" t="n">
-        <v>123.208124435388</v>
+        <v>123.2081244353881</v>
       </c>
       <c r="U38" t="n">
-        <v>161.1737578526517</v>
+        <v>161.1737578526518</v>
       </c>
       <c r="V38" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981695</v>
       </c>
       <c r="W38" t="n">
-        <v>259.2499384454475</v>
+        <v>259.2499384454476</v>
       </c>
       <c r="X38" t="n">
-        <v>279.7400704065035</v>
+        <v>279.7400704065036</v>
       </c>
       <c r="Y38" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840882</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.84094990997178</v>
+        <v>89.84094990997187</v>
       </c>
       <c r="C40" t="n">
-        <v>77.25579082666232</v>
+        <v>77.25579082666241</v>
       </c>
       <c r="D40" t="n">
-        <v>58.62444274624684</v>
+        <v>58.62444274624693</v>
       </c>
       <c r="E40" t="n">
-        <v>56.44293237460366</v>
+        <v>56.44293237460374</v>
       </c>
       <c r="F40" t="n">
-        <v>55.43001775096573</v>
+        <v>55.43001775096582</v>
       </c>
       <c r="G40" t="n">
-        <v>76.98582764574894</v>
+        <v>76.98582764574772</v>
       </c>
       <c r="H40" t="n">
-        <v>63.21968069866693</v>
+        <v>63.21968069866702</v>
       </c>
       <c r="I40" t="n">
-        <v>34.96204714633784</v>
+        <v>34.96204714633792</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.7037734149709</v>
+        <v>41.70377341497098</v>
       </c>
       <c r="S40" t="n">
-        <v>116.3521968385658</v>
+        <v>116.3521968385659</v>
       </c>
       <c r="T40" t="n">
-        <v>133.6214948185866</v>
+        <v>133.6214948185867</v>
       </c>
       <c r="U40" t="n">
-        <v>196.2726833695755</v>
+        <v>196.2726833695757</v>
       </c>
       <c r="V40" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W40" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646256</v>
       </c>
       <c r="X40" t="n">
-        <v>135.7186251170716</v>
+        <v>135.7186251170717</v>
       </c>
       <c r="Y40" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801294</v>
       </c>
     </row>
     <row r="41">
@@ -3746,19 +3746,19 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E41" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F41" t="n">
         <v>316.885015469746</v>
       </c>
       <c r="G41" t="n">
-        <v>323.0508974529291</v>
+        <v>323.0508974529301</v>
       </c>
       <c r="H41" t="n">
-        <v>226.3302535795012</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I41" t="n">
-        <v>33.3249898601935</v>
+        <v>33.32498986019345</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.51083621917444</v>
+        <v>67.51083621917439</v>
       </c>
       <c r="T41" t="n">
         <v>123.2081244353881</v>
@@ -3803,7 +3803,7 @@
         <v>259.2499384454475</v>
       </c>
       <c r="X41" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y41" t="n">
         <v>296.2469083840881</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>89.84094990997184</v>
+        <v>89.8409499099718</v>
       </c>
       <c r="C43" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666233</v>
       </c>
       <c r="D43" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624686</v>
       </c>
       <c r="E43" t="n">
-        <v>56.44293237460371</v>
+        <v>56.44293237460367</v>
       </c>
       <c r="F43" t="n">
-        <v>55.43001775096579</v>
+        <v>55.43001775096575</v>
       </c>
       <c r="G43" t="n">
-        <v>76.98582764574812</v>
+        <v>76.98582764574807</v>
       </c>
       <c r="H43" t="n">
-        <v>63.21968069866699</v>
+        <v>63.21968069866695</v>
       </c>
       <c r="I43" t="n">
-        <v>34.96204714633789</v>
+        <v>34.96204714633785</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.70377341497095</v>
+        <v>41.70377341497091</v>
       </c>
       <c r="S43" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385662</v>
       </c>
       <c r="T43" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U43" t="n">
         <v>196.2726833695757</v>
@@ -3983,7 +3983,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E44" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F44" t="n">
         <v>316.885015469746</v>
@@ -3992,10 +3992,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H44" t="n">
-        <v>226.3302535795012</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I44" t="n">
-        <v>33.3249898601935</v>
+        <v>33.32498986019345</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.51083621917444</v>
+        <v>67.51083621917439</v>
       </c>
       <c r="T44" t="n">
         <v>123.2081244353881</v>
@@ -4037,13 +4037,13 @@
         <v>237.7612281981694</v>
       </c>
       <c r="W44" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X44" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840879</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>89.84094990997184</v>
+        <v>89.8409499099718</v>
       </c>
       <c r="C46" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666233</v>
       </c>
       <c r="D46" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624686</v>
       </c>
       <c r="E46" t="n">
-        <v>56.44293237460371</v>
+        <v>56.44293237460367</v>
       </c>
       <c r="F46" t="n">
-        <v>55.43001775096579</v>
+        <v>55.43001775096575</v>
       </c>
       <c r="G46" t="n">
-        <v>76.98582764574812</v>
+        <v>76.98582764574807</v>
       </c>
       <c r="H46" t="n">
-        <v>63.21968069866699</v>
+        <v>63.21968069866695</v>
       </c>
       <c r="I46" t="n">
-        <v>34.96204714633789</v>
+        <v>34.96204714633785</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.70377341497095</v>
+        <v>41.70377341497091</v>
       </c>
       <c r="S46" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T46" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U46" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695752</v>
       </c>
       <c r="V46" t="n">
         <v>162.1466130518625</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>278.1872303756613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4352,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>426.903709034957</v>
+        <v>579.5027691685495</v>
       </c>
       <c r="C3" t="n">
-        <v>252.45067975383</v>
+        <v>405.0497398874226</v>
       </c>
       <c r="D3" t="n">
-        <v>103.5162700925787</v>
+        <v>256.1153302261713</v>
       </c>
       <c r="E3" t="n">
-        <v>103.5162700925787</v>
+        <v>256.1153302261713</v>
       </c>
       <c r="F3" t="n">
-        <v>82.5191648013716</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G3" t="n">
-        <v>82.5191648013716</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4416,7 +4416,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4440,19 +4440,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>634.6640077999109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>634.6640077999109</v>
+        <v>822.9515458126496</v>
       </c>
       <c r="W3" t="n">
-        <v>634.6640077999109</v>
+        <v>579.5027691685495</v>
       </c>
       <c r="X3" t="n">
-        <v>634.6640077999109</v>
+        <v>579.5027691685495</v>
       </c>
       <c r="Y3" t="n">
-        <v>426.903709034957</v>
+        <v>579.5027691685495</v>
       </c>
     </row>
     <row r="4">
@@ -4504,13 +4504,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>501.012738312878</v>
+        <v>369.9806136976479</v>
       </c>
       <c r="C5" t="n">
-        <v>501.012738312878</v>
+        <v>284.3473839888587</v>
       </c>
       <c r="D5" t="n">
-        <v>501.012738312878</v>
+        <v>284.3473839888587</v>
       </c>
       <c r="E5" t="n">
-        <v>501.012738312878</v>
+        <v>284.3473839888587</v>
       </c>
       <c r="F5" t="n">
-        <v>494.0672375636746</v>
+        <v>277.4018832396552</v>
       </c>
       <c r="G5" t="n">
-        <v>478.6248454252182</v>
+        <v>30.36882024860223</v>
       </c>
       <c r="H5" t="n">
-        <v>231.5917824341653</v>
+        <v>30.36882024860223</v>
       </c>
       <c r="I5" t="n">
-        <v>19.56501858889139</v>
+        <v>30.36882024860223</v>
       </c>
       <c r="J5" t="n">
         <v>19.56501858889139</v>
@@ -4586,31 +4586,31 @@
         <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>978.2509294445697</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R5" t="n">
-        <v>958.8372297954746</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="S5" t="n">
-        <v>748.0458013039309</v>
+        <v>617.0136766887008</v>
       </c>
       <c r="T5" t="n">
-        <v>748.0458013039309</v>
+        <v>617.0136766887008</v>
       </c>
       <c r="U5" t="n">
-        <v>748.0458013039309</v>
+        <v>617.0136766887008</v>
       </c>
       <c r="V5" t="n">
-        <v>501.012738312878</v>
+        <v>617.0136766887008</v>
       </c>
       <c r="W5" t="n">
-        <v>501.012738312878</v>
+        <v>369.9806136976479</v>
       </c>
       <c r="X5" t="n">
-        <v>501.012738312878</v>
+        <v>369.9806136976479</v>
       </c>
       <c r="Y5" t="n">
-        <v>501.012738312878</v>
+        <v>369.9806136976479</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168.4994282501427</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C6" t="n">
-        <v>168.4994282501427</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D6" t="n">
         <v>19.56501858889139</v>
@@ -4668,28 +4668,28 @@
         <v>978.2509294445697</v>
       </c>
       <c r="R6" t="n">
-        <v>877.5769898880285</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="S6" t="n">
-        <v>704.3079091975965</v>
+        <v>804.9818487541377</v>
       </c>
       <c r="T6" t="n">
-        <v>704.3079091975965</v>
+        <v>804.9818487541377</v>
       </c>
       <c r="U6" t="n">
-        <v>704.3079091975965</v>
+        <v>576.7587556281616</v>
       </c>
       <c r="V6" t="n">
-        <v>704.3079091975965</v>
+        <v>341.6066473964189</v>
       </c>
       <c r="W6" t="n">
-        <v>704.3079091975965</v>
+        <v>341.6066473964189</v>
       </c>
       <c r="X6" t="n">
-        <v>496.4564089920636</v>
+        <v>341.6066473964189</v>
       </c>
       <c r="Y6" t="n">
-        <v>288.6961102271097</v>
+        <v>187.7803556089594</v>
       </c>
     </row>
     <row r="7">
@@ -4750,13 +4750,13 @@
         <v>158.0312465334349</v>
       </c>
       <c r="S7" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="T7" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="U7" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="V7" t="n">
         <v>19.56501858889139</v>
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>571.8069603738999</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="C8" t="n">
-        <v>571.8069603738999</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="D8" t="n">
-        <v>571.8069603738999</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="E8" t="n">
-        <v>571.8069603738999</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="F8" t="n">
-        <v>292.8609869371771</v>
+        <v>316.353594055456</v>
       </c>
       <c r="G8" t="n">
-        <v>22.09252109618844</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="H8" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I8" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J8" t="n">
-        <v>22.09252109618846</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K8" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L8" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M8" t="n">
         <v>586.3582880173956</v>
       </c>
       <c r="N8" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O8" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P8" t="n">
         <v>1099.465256491931</v>
@@ -4835,19 +4835,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U8" t="n">
-        <v>850.7529338106226</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V8" t="n">
-        <v>850.7529338106226</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="W8" t="n">
-        <v>850.7529338106226</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="X8" t="n">
-        <v>850.7529338106226</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="Y8" t="n">
-        <v>850.7529338106226</v>
+        <v>546.7341079359765</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22.09252109618844</v>
+        <v>171.0269307574397</v>
       </c>
       <c r="C9" t="n">
-        <v>22.09252109618844</v>
+        <v>171.0269307574397</v>
       </c>
       <c r="D9" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E9" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F9" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G9" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H9" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I9" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J9" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K9" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L9" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="M9" t="n">
-        <v>288.9361218459458</v>
+        <v>288.9361218459457</v>
       </c>
       <c r="N9" t="n">
-        <v>562.3310704112777</v>
+        <v>562.3310704112776</v>
       </c>
       <c r="O9" t="n">
-        <v>828.8278839945615</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="P9" t="n">
         <v>1025.71200399185</v>
@@ -4905,28 +4905,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R9" t="n">
-        <v>1008.180757940352</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S9" t="n">
-        <v>836.1767451915302</v>
+        <v>836.17674519153</v>
       </c>
       <c r="T9" t="n">
-        <v>836.1767451915302</v>
+        <v>634.2968452196393</v>
       </c>
       <c r="U9" t="n">
-        <v>607.9581328256779</v>
+        <v>634.2968452196393</v>
       </c>
       <c r="V9" t="n">
-        <v>372.8060245939352</v>
+        <v>399.1447369878966</v>
       </c>
       <c r="W9" t="n">
-        <v>372.8060245939352</v>
+        <v>399.1447369878966</v>
       </c>
       <c r="X9" t="n">
-        <v>372.8060245939352</v>
+        <v>191.2932367823637</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.3078581162565</v>
+        <v>171.0269307574397</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C10" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D10" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E10" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F10" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G10" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H10" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I10" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J10" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K10" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L10" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M10" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N10" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O10" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P10" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q10" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R10" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S10" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T10" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="U10" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V10" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W10" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X10" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y10" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1156.358483644321</v>
+        <v>1156.358483644319</v>
       </c>
       <c r="C11" t="n">
-        <v>795.3288201937628</v>
+        <v>795.3288201937601</v>
       </c>
       <c r="D11" t="n">
-        <v>444.9959750768656</v>
+        <v>444.9959750768626</v>
       </c>
       <c r="E11" t="n">
-        <v>187.730371222972</v>
+        <v>444.9959750768626</v>
       </c>
       <c r="F11" t="n">
-        <v>187.730371222972</v>
+        <v>444.9959750768626</v>
       </c>
       <c r="G11" t="n">
-        <v>187.730371222972</v>
+        <v>444.9959750768626</v>
       </c>
       <c r="H11" t="n">
-        <v>187.730371222972</v>
+        <v>187.7303712229722</v>
       </c>
       <c r="I11" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J11" t="n">
-        <v>249.2363626397096</v>
+        <v>249.2363626397093</v>
       </c>
       <c r="K11" t="n">
-        <v>636.9590170723841</v>
+        <v>636.9590170723839</v>
       </c>
       <c r="L11" t="n">
         <v>1170.239882220687</v>
@@ -5069,22 +5069,22 @@
         <v>3403.919469839107</v>
       </c>
       <c r="T11" t="n">
-        <v>3196.499641806382</v>
+        <v>3196.499641806381</v>
       </c>
       <c r="U11" t="n">
-        <v>2950.730689109753</v>
+        <v>2950.730689109752</v>
       </c>
       <c r="V11" t="n">
-        <v>2627.600655256036</v>
+        <v>2627.600655256034</v>
       </c>
       <c r="W11" t="n">
-        <v>2282.764853475775</v>
+        <v>2282.764853475773</v>
       </c>
       <c r="X11" t="n">
-        <v>1917.231948704548</v>
+        <v>1917.231948704546</v>
       </c>
       <c r="Y11" t="n">
-        <v>1535.02547021859</v>
+        <v>1535.025470218588</v>
       </c>
     </row>
     <row r="12">
@@ -5124,16 +5124,16 @@
         <v>128.0155738864514</v>
       </c>
       <c r="L12" t="n">
-        <v>250.8659923980115</v>
+        <v>250.8659923980117</v>
       </c>
       <c r="M12" t="n">
-        <v>838.9773637404248</v>
+        <v>838.9773637404246</v>
       </c>
       <c r="N12" t="n">
         <v>1494.959119715748</v>
       </c>
       <c r="O12" t="n">
-        <v>2028.638591743681</v>
+        <v>2028.63859174368</v>
       </c>
       <c r="P12" t="n">
         <v>2439.960350382057</v>
@@ -5200,37 +5200,37 @@
         <v>71.10158821569499</v>
       </c>
       <c r="K13" t="n">
-        <v>173.4740291279862</v>
+        <v>173.4740291279861</v>
       </c>
       <c r="L13" t="n">
-        <v>357.8276222186239</v>
+        <v>357.8276222186236</v>
       </c>
       <c r="M13" t="n">
-        <v>562.1691141411728</v>
+        <v>562.1691141411725</v>
       </c>
       <c r="N13" t="n">
-        <v>767.2713104105864</v>
+        <v>767.2713104105858</v>
       </c>
       <c r="O13" t="n">
-        <v>941.2936181972448</v>
+        <v>941.2936181972441</v>
       </c>
       <c r="P13" t="n">
-        <v>1067.801226403959</v>
+        <v>1067.801226403958</v>
       </c>
       <c r="Q13" t="n">
-        <v>1074.345446606521</v>
+        <v>1074.34544660652</v>
       </c>
       <c r="R13" t="n">
-        <v>949.2532458671458</v>
+        <v>949.2532458671444</v>
       </c>
       <c r="S13" t="n">
-        <v>748.7585972251493</v>
+        <v>748.7585972251477</v>
       </c>
       <c r="T13" t="n">
-        <v>530.8202132497984</v>
+        <v>599.0756357464627</v>
       </c>
       <c r="U13" t="n">
-        <v>249.5978004350646</v>
+        <v>317.8532229317288</v>
       </c>
       <c r="V13" t="n">
         <v>71.10158821569499</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1631.066213165798</v>
+        <v>1631.066213165792</v>
       </c>
       <c r="C14" t="n">
-        <v>1329.375015905425</v>
+        <v>1329.375015905417</v>
       </c>
       <c r="D14" t="n">
-        <v>1038.380636978712</v>
+        <v>1038.380636978704</v>
       </c>
       <c r="E14" t="n">
-        <v>719.8637040605058</v>
+        <v>1038.380636978704</v>
       </c>
       <c r="F14" t="n">
-        <v>719.8637040605058</v>
+        <v>694.6660518691333</v>
       </c>
       <c r="G14" t="n">
-        <v>380.6370336875641</v>
+        <v>380.6370336875659</v>
       </c>
       <c r="H14" t="n">
-        <v>128.3919050327873</v>
+        <v>128.3919050327881</v>
       </c>
       <c r="I14" t="n">
         <v>71.10158821569499</v>
@@ -5279,16 +5279,16 @@
         <v>249.2363626397091</v>
       </c>
       <c r="K14" t="n">
-        <v>636.9590170723836</v>
+        <v>636.9590170723841</v>
       </c>
       <c r="L14" t="n">
-        <v>1170.239882220686</v>
+        <v>1170.239882220687</v>
       </c>
       <c r="M14" t="n">
         <v>1780.224142393353</v>
       </c>
       <c r="N14" t="n">
-        <v>2385.446588068709</v>
+        <v>2385.44658806871</v>
       </c>
       <c r="O14" t="n">
         <v>2911.753343601288</v>
@@ -5303,25 +5303,25 @@
         <v>3555.079410784749</v>
       </c>
       <c r="S14" t="n">
-        <v>3463.257936029292</v>
+        <v>3463.257936029291</v>
       </c>
       <c r="T14" t="n">
-        <v>3315.176574186751</v>
+        <v>3315.176574186749</v>
       </c>
       <c r="U14" t="n">
-        <v>3128.746087680307</v>
+        <v>3128.746087680304</v>
       </c>
       <c r="V14" t="n">
-        <v>2864.954520016774</v>
+        <v>2864.95452001677</v>
       </c>
       <c r="W14" t="n">
-        <v>2579.457184426698</v>
+        <v>2579.457184426693</v>
       </c>
       <c r="X14" t="n">
-        <v>2273.262745845656</v>
+        <v>2273.262745845651</v>
       </c>
       <c r="Y14" t="n">
-        <v>1950.394733549882</v>
+        <v>1950.394733549876</v>
       </c>
     </row>
     <row r="15">
@@ -5364,7 +5364,7 @@
         <v>250.8659923980116</v>
       </c>
       <c r="M15" t="n">
-        <v>874.6315176058737</v>
+        <v>838.9773637404248</v>
       </c>
       <c r="N15" t="n">
         <v>1494.959119715748</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.3678595773341</v>
+        <v>233.5655357658669</v>
       </c>
       <c r="C16" t="n">
-        <v>100.3678595773341</v>
+        <v>233.5655357658669</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3678595773341</v>
+        <v>150.7202160335682</v>
       </c>
       <c r="E16" t="n">
-        <v>100.3678595773341</v>
+        <v>150.7202160335682</v>
       </c>
       <c r="F16" t="n">
-        <v>100.3678595773341</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="G16" t="n">
         <v>71.10158821569499</v>
@@ -5434,52 +5434,52 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J16" t="n">
-        <v>115.5900223206712</v>
+        <v>115.5900223206704</v>
       </c>
       <c r="K16" t="n">
-        <v>276.1200939459625</v>
+        <v>276.1200939459608</v>
       </c>
       <c r="L16" t="n">
-        <v>518.6313177496002</v>
+        <v>518.6313177495977</v>
       </c>
       <c r="M16" t="n">
-        <v>781.1304403851491</v>
+        <v>781.1304403851458</v>
       </c>
       <c r="N16" t="n">
-        <v>1044.390267367563</v>
+        <v>1044.390267367558</v>
       </c>
       <c r="O16" t="n">
-        <v>1276.570205867221</v>
+        <v>1276.570205867216</v>
       </c>
       <c r="P16" t="n">
-        <v>1461.235444786935</v>
+        <v>1461.235444786929</v>
       </c>
       <c r="Q16" t="n">
-        <v>1525.937295702497</v>
+        <v>1525.93729570249</v>
       </c>
       <c r="R16" t="n">
-        <v>1460.183561153306</v>
+        <v>1460.183561153299</v>
       </c>
       <c r="S16" t="n">
-        <v>1319.027378701494</v>
+        <v>1319.027378701486</v>
       </c>
       <c r="T16" t="n">
-        <v>1160.427460916328</v>
+        <v>1160.427460916319</v>
       </c>
       <c r="U16" t="n">
-        <v>938.543514291779</v>
+        <v>938.5435142917688</v>
       </c>
       <c r="V16" t="n">
-        <v>751.1303457659301</v>
+        <v>751.1303457659191</v>
       </c>
       <c r="W16" t="n">
-        <v>528.9844954090074</v>
+        <v>528.9844954089956</v>
       </c>
       <c r="X16" t="n">
-        <v>368.266264191028</v>
+        <v>368.2662641910154</v>
       </c>
       <c r="Y16" t="n">
-        <v>214.7450047275359</v>
+        <v>347.9426809160694</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>659.6936497233955</v>
       </c>
       <c r="G17" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H17" t="n">
-        <v>104.7631941350824</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I17" t="n">
         <v>71.10158821569499</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>498.2942540634047</v>
+        <v>498.2942540634037</v>
       </c>
       <c r="C19" t="n">
-        <v>420.2581017132407</v>
+        <v>420.2581017132397</v>
       </c>
       <c r="D19" t="n">
-        <v>361.0414928786479</v>
+        <v>361.0414928786469</v>
       </c>
       <c r="E19" t="n">
-        <v>304.0284298739978</v>
+        <v>304.0284298739967</v>
       </c>
       <c r="F19" t="n">
-        <v>248.0385129538303</v>
+        <v>248.0385129538292</v>
       </c>
       <c r="G19" t="n">
-        <v>170.275050685398</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H19" t="n">
-        <v>106.4167873534111</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I19" t="n">
         <v>71.10158821569499</v>
@@ -5677,7 +5677,7 @@
         <v>322.4370930476438</v>
       </c>
       <c r="L19" t="n">
-        <v>588.1068164021221</v>
+        <v>588.106816402122</v>
       </c>
       <c r="M19" t="n">
         <v>873.7644385885117</v>
@@ -5701,7 +5701,7 @@
         <v>1551.55279690363</v>
       </c>
       <c r="T19" t="n">
-        <v>1416.581590016169</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U19" t="n">
         <v>1218.326354289324</v>
@@ -5716,7 +5716,7 @@
         <v>718.9352368816885</v>
       </c>
       <c r="Y19" t="n">
-        <v>589.0426883159014</v>
+        <v>589.0426883159005</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>1820.095900347438</v>
       </c>
       <c r="C20" t="n">
-        <v>1542.03341398477</v>
+        <v>1542.033413984769</v>
       </c>
       <c r="D20" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E20" t="n">
-        <v>979.7795239352608</v>
+        <v>979.7795239352602</v>
       </c>
       <c r="F20" t="n">
-        <v>659.6936497233964</v>
+        <v>659.6936497233955</v>
       </c>
       <c r="G20" t="n">
-        <v>333.3796118921547</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H20" t="n">
-        <v>104.7631941350822</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I20" t="n">
-        <v>71.10158821569499</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="J20" t="n">
-        <v>249.2363626397092</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K20" t="n">
-        <v>636.9590170723837</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L20" t="n">
         <v>1170.239882220686</v>
@@ -5780,19 +5780,19 @@
         <v>3486.886646926997</v>
       </c>
       <c r="T20" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.43399598216</v>
       </c>
       <c r="U20" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.632220373421</v>
       </c>
       <c r="V20" t="n">
         <v>2959.469363607594</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915222</v>
       </c>
       <c r="X20" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231885</v>
       </c>
       <c r="Y20" t="n">
         <v>2115.795709833817</v>
@@ -5826,10 +5826,10 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I21" t="n">
-        <v>71.10158821569499</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="J21" t="n">
-        <v>71.10158821569499</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="K21" t="n">
         <v>128.0155738864514</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>498.2942540634063</v>
+        <v>498.2942540634049</v>
       </c>
       <c r="C22" t="n">
-        <v>420.2581017132424</v>
+        <v>420.2581017132409</v>
       </c>
       <c r="D22" t="n">
-        <v>361.0414928786497</v>
+        <v>361.0414928786482</v>
       </c>
       <c r="E22" t="n">
-        <v>304.0284298739996</v>
+        <v>304.028429873998</v>
       </c>
       <c r="F22" t="n">
-        <v>248.0385129538323</v>
+        <v>248.0385129538306</v>
       </c>
       <c r="G22" t="n">
-        <v>170.2750506853999</v>
+        <v>170.2750506853982</v>
       </c>
       <c r="H22" t="n">
-        <v>106.4167873534132</v>
+        <v>106.4167873534114</v>
       </c>
       <c r="I22" t="n">
-        <v>71.10158821569499</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="J22" t="n">
-        <v>138.748521871512</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K22" t="n">
-        <v>322.437093047644</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L22" t="n">
-        <v>588.1068164021224</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M22" t="n">
-        <v>873.7644385885121</v>
+        <v>873.7644385885118</v>
       </c>
       <c r="N22" t="n">
         <v>1160.182765121766</v>
       </c>
       <c r="O22" t="n">
-        <v>1415.521203172266</v>
+        <v>1415.521203172265</v>
       </c>
       <c r="P22" t="n">
         <v>1623.34494164282</v>
       </c>
       <c r="Q22" t="n">
-        <v>1711.205292109223</v>
+        <v>1711.205292109222</v>
       </c>
       <c r="R22" t="n">
-        <v>1669.080268457738</v>
+        <v>1669.080268457737</v>
       </c>
       <c r="S22" t="n">
-        <v>1551.552796903631</v>
+        <v>1551.55279690363</v>
       </c>
       <c r="T22" t="n">
-        <v>1416.58159001617</v>
+        <v>1416.581590016169</v>
       </c>
       <c r="U22" t="n">
-        <v>1218.326354289326</v>
+        <v>1218.326354289325</v>
       </c>
       <c r="V22" t="n">
-        <v>1054.541896661182</v>
+        <v>1054.541896661181</v>
       </c>
       <c r="W22" t="n">
-        <v>856.0247572019643</v>
+        <v>856.0247572019631</v>
       </c>
       <c r="X22" t="n">
-        <v>718.93523688169</v>
+        <v>718.9352368816888</v>
       </c>
       <c r="Y22" t="n">
-        <v>589.042688315903</v>
+        <v>589.0426883159016</v>
       </c>
     </row>
     <row r="23">
@@ -5987,16 +5987,16 @@
         <v>71.10158821569497</v>
       </c>
       <c r="J23" t="n">
-        <v>249.2363626397092</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K23" t="n">
-        <v>636.9590170723837</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L23" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M23" t="n">
-        <v>1780.224142393352</v>
+        <v>1780.224142393353</v>
       </c>
       <c r="N23" t="n">
         <v>2385.446588068709</v>
@@ -6069,10 +6069,10 @@
         <v>71.10158821569497</v>
       </c>
       <c r="K24" t="n">
-        <v>389.8361585289043</v>
+        <v>128.0155738864514</v>
       </c>
       <c r="L24" t="n">
-        <v>676.2598516450627</v>
+        <v>250.8659923980116</v>
       </c>
       <c r="M24" t="n">
         <v>838.9773637404248</v>
@@ -6133,10 +6133,10 @@
         <v>304.028429873998</v>
       </c>
       <c r="F25" t="n">
-        <v>248.0385129538307</v>
+        <v>248.0385129538306</v>
       </c>
       <c r="G25" t="n">
-        <v>170.2750506853983</v>
+        <v>170.2750506853982</v>
       </c>
       <c r="H25" t="n">
         <v>106.4167873534099</v>
@@ -6148,7 +6148,7 @@
         <v>138.7485218715119</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4370930476439</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L25" t="n">
         <v>588.1068164021221</v>
@@ -6218,7 +6218,7 @@
         <v>333.3796118921542</v>
       </c>
       <c r="H26" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350824</v>
       </c>
       <c r="I26" t="n">
         <v>71.10158821569497</v>
@@ -6257,13 +6257,13 @@
         <v>3362.43399598216</v>
       </c>
       <c r="U26" t="n">
-        <v>3199.632220373421</v>
+        <v>3199.632220373422</v>
       </c>
       <c r="V26" t="n">
         <v>2959.469363607594</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.600738915222</v>
+        <v>2697.600738915223</v>
       </c>
       <c r="X26" t="n">
         <v>2415.035011231886</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>498.2942540634039</v>
+        <v>498.2942540634036</v>
       </c>
       <c r="C28" t="n">
-        <v>420.2581017132399</v>
+        <v>420.2581017132396</v>
       </c>
       <c r="D28" t="n">
-        <v>361.0414928786471</v>
+        <v>361.0414928786467</v>
       </c>
       <c r="E28" t="n">
-        <v>304.0284298739969</v>
+        <v>304.0284298739965</v>
       </c>
       <c r="F28" t="n">
         <v>248.0385129538294</v>
@@ -6409,7 +6409,7 @@
         <v>1669.080268457736</v>
       </c>
       <c r="S28" t="n">
-        <v>1551.552796903629</v>
+        <v>1551.55279690363</v>
       </c>
       <c r="T28" t="n">
         <v>1416.581590016168</v>
@@ -6421,13 +6421,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W28" t="n">
-        <v>856.0247572019623</v>
+        <v>856.0247572019621</v>
       </c>
       <c r="X28" t="n">
-        <v>718.9352368816878</v>
+        <v>718.9352368816876</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.0426883159007</v>
+        <v>589.0426883159004</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1820.095900347438</v>
+        <v>1820.095900347437</v>
       </c>
       <c r="C29" t="n">
-        <v>1542.033413984769</v>
+        <v>1542.033413984768</v>
       </c>
       <c r="D29" t="n">
         <v>1274.667745955761</v>
       </c>
       <c r="E29" t="n">
-        <v>979.7795239352602</v>
+        <v>979.7795239352598</v>
       </c>
       <c r="F29" t="n">
-        <v>659.6936497233955</v>
+        <v>659.6936497233953</v>
       </c>
       <c r="G29" t="n">
-        <v>333.3796118921541</v>
+        <v>333.3796118921539</v>
       </c>
       <c r="H29" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350822</v>
       </c>
       <c r="I29" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J29" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K29" t="n">
-        <v>636.9590170723836</v>
+        <v>636.9590170723837</v>
       </c>
       <c r="L29" t="n">
         <v>1170.239882220686</v>
@@ -6494,19 +6494,19 @@
         <v>3362.433995982161</v>
       </c>
       <c r="U29" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.63222037342</v>
       </c>
       <c r="V29" t="n">
-        <v>2959.469363607594</v>
+        <v>2959.469363607593</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915221</v>
       </c>
       <c r="X29" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231885</v>
       </c>
       <c r="Y29" t="n">
-        <v>2115.795709833817</v>
+        <v>2115.795709833816</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6549,7 @@
         <v>250.8659923980116</v>
       </c>
       <c r="M30" t="n">
-        <v>838.9773637404248</v>
+        <v>874.6315176058737</v>
       </c>
       <c r="N30" t="n">
         <v>1494.959119715748</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>498.2942540634047</v>
+        <v>498.2942540634063</v>
       </c>
       <c r="C31" t="n">
-        <v>420.2581017132407</v>
+        <v>420.2581017132424</v>
       </c>
       <c r="D31" t="n">
-        <v>361.0414928786479</v>
+        <v>361.0414928786497</v>
       </c>
       <c r="E31" t="n">
-        <v>304.0284298739978</v>
+        <v>304.0284298739996</v>
       </c>
       <c r="F31" t="n">
-        <v>248.0385129538303</v>
+        <v>248.0385129538323</v>
       </c>
       <c r="G31" t="n">
-        <v>170.275050685398</v>
+        <v>170.2750506853999</v>
       </c>
       <c r="H31" t="n">
-        <v>106.4167873534111</v>
+        <v>106.4167873534099</v>
       </c>
       <c r="I31" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J31" t="n">
-        <v>138.7485218715119</v>
+        <v>138.748521871512</v>
       </c>
       <c r="K31" t="n">
-        <v>322.4370930476438</v>
+        <v>322.437093047644</v>
       </c>
       <c r="L31" t="n">
-        <v>588.1068164021221</v>
+        <v>588.1068164021224</v>
       </c>
       <c r="M31" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885121</v>
       </c>
       <c r="N31" t="n">
         <v>1160.182765121766</v>
       </c>
       <c r="O31" t="n">
-        <v>1415.521203172265</v>
+        <v>1415.521203172266</v>
       </c>
       <c r="P31" t="n">
         <v>1623.34494164282</v>
       </c>
       <c r="Q31" t="n">
-        <v>1711.205292109222</v>
+        <v>1711.205292109223</v>
       </c>
       <c r="R31" t="n">
-        <v>1669.080268457737</v>
+        <v>1669.080268457738</v>
       </c>
       <c r="S31" t="n">
-        <v>1551.55279690363</v>
+        <v>1551.552796903631</v>
       </c>
       <c r="T31" t="n">
-        <v>1416.581590016169</v>
+        <v>1416.58159001617</v>
       </c>
       <c r="U31" t="n">
-        <v>1218.326354289324</v>
+        <v>1218.326354289326</v>
       </c>
       <c r="V31" t="n">
-        <v>1054.541896661181</v>
+        <v>1054.541896661182</v>
       </c>
       <c r="W31" t="n">
-        <v>856.0247572019629</v>
+        <v>856.0247572019643</v>
       </c>
       <c r="X31" t="n">
-        <v>718.9352368816885</v>
+        <v>718.93523688169</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.0426883159014</v>
+        <v>589.042688315903</v>
       </c>
     </row>
     <row r="32">
@@ -6683,10 +6683,10 @@
         <v>1274.667745955762</v>
       </c>
       <c r="E32" t="n">
-        <v>979.7795239352603</v>
+        <v>979.7795239352604</v>
       </c>
       <c r="F32" t="n">
-        <v>659.6936497233957</v>
+        <v>659.6936497233958</v>
       </c>
       <c r="G32" t="n">
         <v>333.3796118921542</v>
@@ -6701,10 +6701,10 @@
         <v>249.2363626397091</v>
       </c>
       <c r="K32" t="n">
-        <v>636.9590170723836</v>
+        <v>636.9590170723841</v>
       </c>
       <c r="L32" t="n">
-        <v>1170.239882220686</v>
+        <v>1170.239882220687</v>
       </c>
       <c r="M32" t="n">
         <v>1780.224142393353</v>
@@ -6786,7 +6786,7 @@
         <v>250.8659923980116</v>
       </c>
       <c r="M33" t="n">
-        <v>838.9773637404248</v>
+        <v>874.6315176058737</v>
       </c>
       <c r="N33" t="n">
         <v>1494.959119715748</v>
@@ -6835,46 +6835,46 @@
         <v>498.2942540634038</v>
       </c>
       <c r="C34" t="n">
-        <v>420.2581017132398</v>
+        <v>420.2581017132399</v>
       </c>
       <c r="D34" t="n">
         <v>361.041492878647</v>
       </c>
       <c r="E34" t="n">
-        <v>304.0284298739967</v>
+        <v>304.0284298739968</v>
       </c>
       <c r="F34" t="n">
         <v>248.0385129538293</v>
       </c>
       <c r="G34" t="n">
-        <v>170.2750506853969</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H34" t="n">
-        <v>106.41678735341</v>
+        <v>106.4167873534099</v>
       </c>
       <c r="I34" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J34" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K34" t="n">
-        <v>322.4370930476437</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L34" t="n">
         <v>588.1068164021219</v>
       </c>
       <c r="M34" t="n">
-        <v>873.7644385885116</v>
+        <v>873.7644385885114</v>
       </c>
       <c r="N34" t="n">
-        <v>1160.182765121766</v>
+        <v>1160.182765121765</v>
       </c>
       <c r="O34" t="n">
         <v>1415.521203172265</v>
       </c>
       <c r="P34" t="n">
-        <v>1623.34494164282</v>
+        <v>1623.344941642819</v>
       </c>
       <c r="Q34" t="n">
         <v>1711.205292109222</v>
@@ -6886,19 +6886,19 @@
         <v>1551.55279690363</v>
       </c>
       <c r="T34" t="n">
-        <v>1416.581590016169</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U34" t="n">
         <v>1218.326354289324</v>
       </c>
       <c r="V34" t="n">
-        <v>1054.541896661181</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W34" t="n">
-        <v>856.0247572019628</v>
+        <v>856.0247572019623</v>
       </c>
       <c r="X34" t="n">
-        <v>718.9352368816883</v>
+        <v>718.9352368816878</v>
       </c>
       <c r="Y34" t="n">
         <v>589.0426883159006</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1820.095900347438</v>
+        <v>1820.095900347439</v>
       </c>
       <c r="C35" t="n">
-        <v>1542.033413984769</v>
+        <v>1542.03341398477</v>
       </c>
       <c r="D35" t="n">
         <v>1274.667745955762</v>
@@ -6926,46 +6926,46 @@
         <v>659.6936497233958</v>
       </c>
       <c r="G35" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921543</v>
       </c>
       <c r="H35" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350824</v>
       </c>
       <c r="I35" t="n">
-        <v>71.10158821569499</v>
+        <v>71.10158821569502</v>
       </c>
       <c r="J35" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K35" t="n">
-        <v>636.9590170723841</v>
+        <v>636.9590170723837</v>
       </c>
       <c r="L35" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M35" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N35" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068711</v>
       </c>
       <c r="O35" t="n">
-        <v>2911.753343601288</v>
+        <v>2911.75334360129</v>
       </c>
       <c r="P35" t="n">
-        <v>3323.269600003673</v>
+        <v>3323.269600003674</v>
       </c>
       <c r="Q35" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.079410784751</v>
       </c>
       <c r="R35" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.079410784751</v>
       </c>
       <c r="S35" t="n">
-        <v>3486.886646926997</v>
+        <v>3486.886646926999</v>
       </c>
       <c r="T35" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.433995982162</v>
       </c>
       <c r="U35" t="n">
         <v>3199.632220373422</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.5698188245173</v>
+        <v>987.5698188245175</v>
       </c>
       <c r="C36" t="n">
-        <v>813.1167895433903</v>
+        <v>813.1167895433905</v>
       </c>
       <c r="D36" t="n">
-        <v>664.182379882139</v>
+        <v>664.1823798821392</v>
       </c>
       <c r="E36" t="n">
-        <v>504.9449248766836</v>
+        <v>504.9449248766837</v>
       </c>
       <c r="F36" t="n">
         <v>358.4103669035686</v>
@@ -7008,19 +7008,19 @@
         <v>220.9013999505779</v>
       </c>
       <c r="H36" t="n">
-        <v>119.3328447905925</v>
+        <v>119.3328447905926</v>
       </c>
       <c r="I36" t="n">
-        <v>71.10158821569499</v>
+        <v>71.10158821569502</v>
       </c>
       <c r="J36" t="n">
-        <v>71.10158821569499</v>
+        <v>71.10158821569502</v>
       </c>
       <c r="K36" t="n">
         <v>128.0155738864514</v>
       </c>
       <c r="L36" t="n">
-        <v>250.8659923980116</v>
+        <v>617.9979342484362</v>
       </c>
       <c r="M36" t="n">
         <v>838.9773637404248</v>
@@ -7050,7 +7050,7 @@
         <v>2060.786419775016</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.634311543273</v>
+        <v>1825.634311543274</v>
       </c>
       <c r="W36" t="n">
         <v>1571.396954815072</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>498.2942540634038</v>
+        <v>498.2942540634043</v>
       </c>
       <c r="C37" t="n">
-        <v>420.2581017132398</v>
+        <v>420.2581017132402</v>
       </c>
       <c r="D37" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786473</v>
       </c>
       <c r="E37" t="n">
-        <v>304.0284298739968</v>
+        <v>304.028429873997</v>
       </c>
       <c r="F37" t="n">
-        <v>248.0385129538294</v>
+        <v>248.0385129538296</v>
       </c>
       <c r="G37" t="n">
-        <v>170.2750506853967</v>
+        <v>170.275050685397</v>
       </c>
       <c r="H37" t="n">
-        <v>106.4167873534098</v>
+        <v>106.4167873534101</v>
       </c>
       <c r="I37" t="n">
-        <v>71.10158821569499</v>
+        <v>71.10158821569502</v>
       </c>
       <c r="J37" t="n">
         <v>138.7485218715118</v>
@@ -7102,13 +7102,13 @@
         <v>588.1068164021219</v>
       </c>
       <c r="M37" t="n">
-        <v>873.7644385885113</v>
+        <v>873.7644385885114</v>
       </c>
       <c r="N37" t="n">
         <v>1160.182765121765</v>
       </c>
       <c r="O37" t="n">
-        <v>1415.521203172265</v>
+        <v>1415.521203172264</v>
       </c>
       <c r="P37" t="n">
         <v>1623.344941642819</v>
@@ -7126,19 +7126,19 @@
         <v>1416.581590016169</v>
       </c>
       <c r="U37" t="n">
-        <v>1218.326354289324</v>
+        <v>1218.326354289325</v>
       </c>
       <c r="V37" t="n">
-        <v>1054.54189666118</v>
+        <v>1054.541896661181</v>
       </c>
       <c r="W37" t="n">
-        <v>856.0247572019624</v>
+        <v>856.0247572019629</v>
       </c>
       <c r="X37" t="n">
-        <v>718.9352368816878</v>
+        <v>718.9352368816884</v>
       </c>
       <c r="Y37" t="n">
-        <v>589.0426883159006</v>
+        <v>589.0426883159012</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1820.095900347438</v>
+        <v>1820.095900347439</v>
       </c>
       <c r="C38" t="n">
-        <v>1542.033413984769</v>
+        <v>1542.03341398477</v>
       </c>
       <c r="D38" t="n">
-        <v>1274.667745955761</v>
+        <v>1274.667745955762</v>
       </c>
       <c r="E38" t="n">
-        <v>979.7795239352602</v>
+        <v>979.7795239352604</v>
       </c>
       <c r="F38" t="n">
-        <v>659.6936497233955</v>
+        <v>659.6936497233958</v>
       </c>
       <c r="G38" t="n">
-        <v>333.3796118921541</v>
+        <v>333.3796118921542</v>
       </c>
       <c r="H38" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350824</v>
       </c>
       <c r="I38" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J38" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K38" t="n">
-        <v>636.9590170723841</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L38" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M38" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393354</v>
       </c>
       <c r="N38" t="n">
         <v>2385.44658806871</v>
       </c>
       <c r="O38" t="n">
-        <v>2911.753343601288</v>
+        <v>2911.753343601289</v>
       </c>
       <c r="P38" t="n">
-        <v>3323.269600003673</v>
+        <v>3323.269600003674</v>
       </c>
       <c r="Q38" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R38" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="S38" t="n">
-        <v>3486.886646926997</v>
+        <v>3486.886646926998</v>
       </c>
       <c r="T38" t="n">
         <v>3362.433995982161</v>
@@ -7214,10 +7214,10 @@
         <v>2697.600738915223</v>
       </c>
       <c r="X38" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231887</v>
       </c>
       <c r="Y38" t="n">
-        <v>2115.795709833817</v>
+        <v>2115.795709833818</v>
       </c>
     </row>
     <row r="39">
@@ -7248,16 +7248,16 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I39" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J39" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="K39" t="n">
         <v>128.0155738864514</v>
       </c>
       <c r="L39" t="n">
-        <v>250.8659923980116</v>
+        <v>250.8659923980117</v>
       </c>
       <c r="M39" t="n">
         <v>838.9773637404248</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>498.2942540634043</v>
+        <v>498.2942540634037</v>
       </c>
       <c r="C40" t="n">
-        <v>420.2581017132404</v>
+        <v>420.2581017132396</v>
       </c>
       <c r="D40" t="n">
-        <v>361.0414928786476</v>
+        <v>361.0414928786467</v>
       </c>
       <c r="E40" t="n">
-        <v>304.0284298739974</v>
+        <v>304.0284298739965</v>
       </c>
       <c r="F40" t="n">
-        <v>248.03851295383</v>
+        <v>248.038512953829</v>
       </c>
       <c r="G40" t="n">
-        <v>170.2750506853968</v>
+        <v>170.275050685397</v>
       </c>
       <c r="H40" t="n">
-        <v>106.41678735341</v>
+        <v>106.4167873534101</v>
       </c>
       <c r="I40" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J40" t="n">
-        <v>138.7485218715119</v>
+        <v>138.7485218715118</v>
       </c>
       <c r="K40" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476436</v>
       </c>
       <c r="L40" t="n">
-        <v>588.1068164021221</v>
+        <v>588.1068164021218</v>
       </c>
       <c r="M40" t="n">
-        <v>873.764438588512</v>
+        <v>873.7644385885113</v>
       </c>
       <c r="N40" t="n">
-        <v>1160.182765121766</v>
+        <v>1160.182765121765</v>
       </c>
       <c r="O40" t="n">
-        <v>1415.521203172265</v>
+        <v>1415.521203172264</v>
       </c>
       <c r="P40" t="n">
-        <v>1623.34494164282</v>
+        <v>1623.344941642819</v>
       </c>
       <c r="Q40" t="n">
         <v>1711.205292109222</v>
@@ -7369,13 +7369,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W40" t="n">
-        <v>856.0247572019626</v>
+        <v>856.0247572019622</v>
       </c>
       <c r="X40" t="n">
-        <v>718.9352368816883</v>
+        <v>718.9352368816877</v>
       </c>
       <c r="Y40" t="n">
-        <v>589.042688315901</v>
+        <v>589.0426883159005</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7385,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1820.095900347438</v>
+        <v>1820.095900347439</v>
       </c>
       <c r="C41" t="n">
-        <v>1542.033413984769</v>
+        <v>1542.03341398477</v>
       </c>
       <c r="D41" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955763</v>
       </c>
       <c r="E41" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352614</v>
       </c>
       <c r="F41" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233968</v>
       </c>
       <c r="G41" t="n">
         <v>333.3796118921542</v>
       </c>
       <c r="H41" t="n">
-        <v>104.7631941350824</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I41" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J41" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K41" t="n">
-        <v>636.9590170723841</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L41" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M41" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N41" t="n">
         <v>2385.446588068709</v>
@@ -7430,31 +7430,31 @@
         <v>3323.269600003673</v>
       </c>
       <c r="Q41" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R41" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="S41" t="n">
-        <v>3486.886646926997</v>
+        <v>3486.886646926998</v>
       </c>
       <c r="T41" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.433995982162</v>
       </c>
       <c r="U41" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.632220373423</v>
       </c>
       <c r="V41" t="n">
-        <v>2959.469363607594</v>
+        <v>2959.469363607595</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915224</v>
       </c>
       <c r="X41" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231887</v>
       </c>
       <c r="Y41" t="n">
-        <v>2115.795709833817</v>
+        <v>2115.795709833818</v>
       </c>
     </row>
     <row r="42">
@@ -7485,19 +7485,19 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I42" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J42" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="K42" t="n">
         <v>128.0155738864514</v>
       </c>
       <c r="L42" t="n">
-        <v>250.8659923980116</v>
+        <v>250.8659923980117</v>
       </c>
       <c r="M42" t="n">
-        <v>838.9773637404248</v>
+        <v>874.6315176058738</v>
       </c>
       <c r="N42" t="n">
         <v>1494.959119715748</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>498.2942540634043</v>
+        <v>498.2942540634036</v>
       </c>
       <c r="C43" t="n">
-        <v>420.2581017132403</v>
+        <v>420.2581017132396</v>
       </c>
       <c r="D43" t="n">
-        <v>361.0414928786474</v>
+        <v>361.0414928786469</v>
       </c>
       <c r="E43" t="n">
-        <v>304.0284298739972</v>
+        <v>304.0284298739967</v>
       </c>
       <c r="F43" t="n">
-        <v>248.0385129538297</v>
+        <v>248.0385129538292</v>
       </c>
       <c r="G43" t="n">
-        <v>170.2750506853972</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H43" t="n">
         <v>106.41678735341</v>
       </c>
       <c r="I43" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J43" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K43" t="n">
         <v>322.4370930476437</v>
@@ -7576,43 +7576,43 @@
         <v>588.1068164021219</v>
       </c>
       <c r="M43" t="n">
-        <v>873.7644385885114</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N43" t="n">
-        <v>1160.182765121765</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O43" t="n">
-        <v>1415.521203172264</v>
+        <v>1415.521203172265</v>
       </c>
       <c r="P43" t="n">
-        <v>1623.344941642819</v>
+        <v>1623.34494164282</v>
       </c>
       <c r="Q43" t="n">
         <v>1711.205292109222</v>
       </c>
       <c r="R43" t="n">
-        <v>1669.080268457736</v>
+        <v>1669.080268457737</v>
       </c>
       <c r="S43" t="n">
         <v>1551.552796903629</v>
       </c>
       <c r="T43" t="n">
-        <v>1416.581590016169</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U43" t="n">
-        <v>1218.326354289325</v>
+        <v>1218.326354289324</v>
       </c>
       <c r="V43" t="n">
-        <v>1054.541896661181</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W43" t="n">
-        <v>856.0247572019628</v>
+        <v>856.0247572019624</v>
       </c>
       <c r="X43" t="n">
-        <v>718.9352368816883</v>
+        <v>718.9352368816881</v>
       </c>
       <c r="Y43" t="n">
-        <v>589.042688315901</v>
+        <v>589.0426883159004</v>
       </c>
     </row>
     <row r="44">
@@ -7631,28 +7631,28 @@
         <v>1274.667745955762</v>
       </c>
       <c r="E44" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352603</v>
       </c>
       <c r="F44" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233957</v>
       </c>
       <c r="G44" t="n">
         <v>333.3796118921542</v>
       </c>
       <c r="H44" t="n">
-        <v>104.7631941350824</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I44" t="n">
-        <v>71.10158821569499</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="J44" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397093</v>
       </c>
       <c r="K44" t="n">
-        <v>636.9590170723836</v>
+        <v>636.9590170723841</v>
       </c>
       <c r="L44" t="n">
-        <v>1170.239882220686</v>
+        <v>1170.239882220687</v>
       </c>
       <c r="M44" t="n">
         <v>1780.224142393353</v>
@@ -7676,16 +7676,16 @@
         <v>3486.886646926997</v>
       </c>
       <c r="T44" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.43399598216</v>
       </c>
       <c r="U44" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.632220373421</v>
       </c>
       <c r="V44" t="n">
         <v>2959.469363607594</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915222</v>
       </c>
       <c r="X44" t="n">
         <v>2415.035011231886</v>
@@ -7722,10 +7722,10 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I45" t="n">
-        <v>71.10158821569499</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="J45" t="n">
-        <v>71.10158821569499</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="K45" t="n">
         <v>128.0155738864514</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>498.2942540634039</v>
+        <v>498.294254063404</v>
       </c>
       <c r="C46" t="n">
-        <v>420.2581017132399</v>
+        <v>420.25810171324</v>
       </c>
       <c r="D46" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786472</v>
       </c>
       <c r="E46" t="n">
-        <v>304.0284298739968</v>
+        <v>304.028429873997</v>
       </c>
       <c r="F46" t="n">
-        <v>248.0385129538293</v>
+        <v>248.0385129538296</v>
       </c>
       <c r="G46" t="n">
-        <v>170.2750506853969</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H46" t="n">
         <v>106.41678735341</v>
       </c>
       <c r="I46" t="n">
-        <v>71.10158821569499</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="J46" t="n">
-        <v>138.748521871512</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K46" t="n">
-        <v>322.4370930476439</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L46" t="n">
-        <v>588.1068164021221</v>
+        <v>588.106816402122</v>
       </c>
       <c r="M46" t="n">
         <v>873.7644385885117</v>
@@ -7843,10 +7843,10 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W46" t="n">
-        <v>856.0247572019623</v>
+        <v>856.0247572019624</v>
       </c>
       <c r="X46" t="n">
-        <v>718.9352368816878</v>
+        <v>718.935236881688</v>
       </c>
       <c r="Y46" t="n">
         <v>589.0426883159007</v>
@@ -8064,10 +8064,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8532,16 +8532,16 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K9" t="n">
-        <v>125.6774978810001</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L9" t="n">
-        <v>122.1984598562864</v>
+        <v>122.1984598562865</v>
       </c>
       <c r="M9" t="n">
         <v>392.5864374864155</v>
       </c>
       <c r="N9" t="n">
-        <v>387.9064735273547</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>12.55318522064596</v>
+        <v>12.5531852206459</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>429.6907669162134</v>
+        <v>429.6907669162128</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9012,10 +9012,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>429.6907669162132</v>
       </c>
       <c r="N15" t="n">
-        <v>443.3280775097668</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720737</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9717,13 +9717,13 @@
         <v>12.55318522064593</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>165.2255299036345</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>429.6907669162132</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -10197,10 +10197,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>429.6907669162132</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>443.3280775097668</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10434,10 +10434,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>429.6907669162132</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>443.3280775097668</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119862</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10668,10 +10668,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>429.6907669162132</v>
+        <v>58.85042161275402</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928335</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10908,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>429.6907669162132</v>
+        <v>429.6907669162131</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599054</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11145,10 +11145,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>429.6907669162132</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>443.3280775097667</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720737</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>209.8933976134044</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>39.16315907700695</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22635,7 +22635,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>124.2820781550888</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>119.3838973019524</v>
+        <v>374.0768451173072</v>
       </c>
       <c r="F11" t="n">
-        <v>399.0225207867567</v>
+        <v>399.0225207867569</v>
       </c>
       <c r="G11" t="n">
-        <v>405.1884027699398</v>
+        <v>405.18840276994</v>
       </c>
       <c r="H11" t="n">
-        <v>308.4677588965118</v>
+        <v>53.77481108116052</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,31 +23413,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171.9784552269825</v>
+        <v>171.9784552269828</v>
       </c>
       <c r="C13" t="n">
-        <v>159.3932961436731</v>
+        <v>159.3932961436733</v>
       </c>
       <c r="D13" t="n">
-        <v>140.7619480632576</v>
+        <v>140.7619480632578</v>
       </c>
       <c r="E13" t="n">
-        <v>138.5804376916144</v>
+        <v>138.5804376916146</v>
       </c>
       <c r="F13" t="n">
-        <v>137.5675230679765</v>
+        <v>137.5675230679767</v>
       </c>
       <c r="G13" t="n">
-        <v>159.1233329627588</v>
+        <v>159.123332962759</v>
       </c>
       <c r="H13" t="n">
-        <v>145.3571860156777</v>
+        <v>145.3571860156779</v>
       </c>
       <c r="I13" t="n">
-        <v>117.0995524633486</v>
+        <v>117.0995524633488</v>
       </c>
       <c r="J13" t="n">
-        <v>13.8072693010341</v>
+        <v>13.80726930103428</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>67.57286827169943</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>67.5728682716973</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>278.6694733816362</v>
+        <v>278.6694733816365</v>
       </c>
       <c r="X13" t="n">
-        <v>217.8561304340824</v>
+        <v>217.8561304340826</v>
       </c>
       <c r="Y13" t="n">
-        <v>210.73112839714</v>
+        <v>210.7311283971403</v>
       </c>
     </row>
     <row r="14">
@@ -23501,13 +23501,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>315.3317635890251</v>
       </c>
       <c r="F14" t="n">
-        <v>340.2774392584739</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>10.60891757244468</v>
+        <v>35.5545932419061</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>100.6482146153903</v>
+        <v>100.6482146153911</v>
       </c>
       <c r="D16" t="n">
-        <v>82.01686653497478</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>79.8353561633316</v>
+        <v>79.83535616333245</v>
       </c>
       <c r="F16" t="n">
-        <v>78.82244153969367</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>71.40464278645327</v>
+        <v>100.3782514344769</v>
       </c>
       <c r="H16" t="n">
-        <v>86.61210448739489</v>
+        <v>86.61210448739574</v>
       </c>
       <c r="I16" t="n">
-        <v>58.35447093506578</v>
+        <v>58.35447093506663</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>131.8656994266616</v>
       </c>
     </row>
     <row r="17">
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-2.289472328203251e-12</v>
+        <v>-1.288080765938682e-12</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.548983163957018e-12</v>
+        <v>-1.449507180950604e-12</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-3.218758592993254e-12</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.151079231931362e-12</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1349101.610399729</v>
+        <v>1349101.610399732</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1191092.400954506</v>
+        <v>1191092.400954505</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1372674.037990913</v>
+        <v>1372674.03799091</v>
       </c>
     </row>
     <row r="7">
@@ -26369,43 +26369,43 @@
         <v>4491.824968753443</v>
       </c>
       <c r="D3" t="n">
-        <v>36660.32665967679</v>
+        <v>36660.32665967674</v>
       </c>
       <c r="E3" t="n">
         <v>612874.4148357984</v>
       </c>
       <c r="F3" t="n">
-        <v>46996.06522262624</v>
+        <v>46996.06522262574</v>
       </c>
       <c r="G3" t="n">
-        <v>18713.93903098236</v>
+        <v>18713.93903098301</v>
       </c>
       <c r="H3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69342.76256306999</v>
+        <v>69342.76256306982</v>
       </c>
       <c r="K3" t="n">
-        <v>47909.32102508344</v>
+        <v>47909.32102508301</v>
       </c>
       <c r="L3" t="n">
-        <v>26710.04074441128</v>
+        <v>26710.04074441185</v>
       </c>
       <c r="M3" t="n">
-        <v>152665.6945306189</v>
+        <v>152665.694530619</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6282.81996396371</v>
+        <v>6282.81996396364</v>
       </c>
       <c r="P3" t="n">
-        <v>46996.06522262628</v>
+        <v>46996.06522262585</v>
       </c>
     </row>
     <row r="4">
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>256152.9387769015</v>
+        <v>256152.9387769026</v>
       </c>
       <c r="C4" t="n">
         <v>286174.4778564102</v>
       </c>
       <c r="D4" t="n">
-        <v>274963.6896325005</v>
+        <v>274963.6896325006</v>
       </c>
       <c r="E4" t="n">
-        <v>17066.58640212935</v>
+        <v>17066.58640212913</v>
       </c>
       <c r="F4" t="n">
-        <v>76430.6802705196</v>
+        <v>76430.68027051876</v>
       </c>
       <c r="G4" t="n">
         <v>100069.7940984993</v>
       </c>
       <c r="H4" t="n">
-        <v>100069.7940984994</v>
+        <v>100069.7940984993</v>
       </c>
       <c r="I4" t="n">
         <v>100069.7940984993</v>
@@ -26442,13 +26442,13 @@
         <v>100069.7940984993</v>
       </c>
       <c r="K4" t="n">
-        <v>100069.7940984993</v>
+        <v>100069.7940984994</v>
       </c>
       <c r="L4" t="n">
         <v>100069.7940984993</v>
       </c>
       <c r="M4" t="n">
-        <v>100069.7940984993</v>
+        <v>100069.7940984992</v>
       </c>
       <c r="N4" t="n">
         <v>100069.7940984993</v>
@@ -26476,10 +26476,10 @@
         <v>51181.37951678014</v>
       </c>
       <c r="E5" t="n">
-        <v>66957.25132339295</v>
+        <v>66957.25132339293</v>
       </c>
       <c r="F5" t="n">
-        <v>71895.89158239416</v>
+        <v>71895.89158239409</v>
       </c>
       <c r="G5" t="n">
         <v>73862.46925788873</v>
@@ -26500,16 +26500,16 @@
         <v>73862.46925788873</v>
       </c>
       <c r="M5" t="n">
-        <v>73862.46925788873</v>
+        <v>73862.46925788875</v>
       </c>
       <c r="N5" t="n">
         <v>73862.46925788873</v>
       </c>
       <c r="O5" t="n">
-        <v>73862.46925788873</v>
+        <v>73862.46925788875</v>
       </c>
       <c r="P5" t="n">
-        <v>73862.46925788873</v>
+        <v>73862.46925788872</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-385203.6390722109</v>
+        <v>-385340.9091656897</v>
       </c>
       <c r="C6" t="n">
         <v>-339243.4071637938</v>
@@ -26528,28 +26528,28 @@
         <v>-362805.3958089575</v>
       </c>
       <c r="E6" t="n">
-        <v>-696898.2525613208</v>
+        <v>-697260.9429307771</v>
       </c>
       <c r="F6" t="n">
-        <v>-195322.63707554</v>
+        <v>-195425.9251063717</v>
       </c>
       <c r="G6" t="n">
-        <v>-192646.2023873704</v>
+        <v>-192646.202387371</v>
       </c>
       <c r="H6" t="n">
-        <v>-173932.2633563882</v>
+        <v>-173932.2633563881</v>
       </c>
       <c r="I6" t="n">
-        <v>-173932.263356388</v>
+        <v>-173932.2633563881</v>
       </c>
       <c r="J6" t="n">
-        <v>-243275.025919458</v>
+        <v>-243275.0259194578</v>
       </c>
       <c r="K6" t="n">
-        <v>-221841.5843814715</v>
+        <v>-221841.5843814712</v>
       </c>
       <c r="L6" t="n">
-        <v>-200642.3041007993</v>
+        <v>-200642.3041007999</v>
       </c>
       <c r="M6" t="n">
         <v>-326597.9578870069</v>
@@ -26561,7 +26561,7 @@
         <v>-180215.0833203517</v>
       </c>
       <c r="P6" t="n">
-        <v>-220928.3285790143</v>
+        <v>-220928.3285790139</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="F2" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="G2" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="H2" t="n">
+        <v>89.99103027196553</v>
+      </c>
+      <c r="I2" t="n">
+        <v>89.99103027196553</v>
+      </c>
+      <c r="J2" t="n">
+        <v>89.99103027196546</v>
+      </c>
+      <c r="K2" t="n">
         <v>89.99103027196558</v>
-      </c>
-      <c r="I2" t="n">
-        <v>89.99103027196554</v>
-      </c>
-      <c r="J2" t="n">
-        <v>89.99103027196547</v>
-      </c>
-      <c r="K2" t="n">
-        <v>89.99103027196551</v>
       </c>
       <c r="L2" t="n">
         <v>89.99103027196547</v>
       </c>
       <c r="M2" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="N2" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="O2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="P2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="E3" t="n">
-        <v>562.3764353223247</v>
+        <v>562.3764353223249</v>
       </c>
       <c r="F3" t="n">
         <v>562.3764353223248</v>
@@ -26793,7 +26793,7 @@
         <v>244.5627323611424</v>
       </c>
       <c r="D4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E4" t="n">
         <v>888.7698526961873</v>
@@ -26805,7 +26805,7 @@
         <v>888.7698526961873</v>
       </c>
       <c r="H4" t="n">
-        <v>888.7698526961873</v>
+        <v>888.7698526961872</v>
       </c>
       <c r="I4" t="n">
         <v>888.7698526961872</v>
@@ -26820,16 +26820,16 @@
         <v>888.7698526961873</v>
       </c>
       <c r="M4" t="n">
-        <v>888.7698526961873</v>
+        <v>888.7698526961876</v>
       </c>
       <c r="N4" t="n">
-        <v>888.7698526961873</v>
+        <v>888.7698526961875</v>
       </c>
       <c r="O4" t="n">
-        <v>888.7698526961873</v>
+        <v>888.7698526961875</v>
       </c>
       <c r="P4" t="n">
-        <v>888.7698526961873</v>
+        <v>888.7698526961872</v>
       </c>
     </row>
   </sheetData>
@@ -26914,40 +26914,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="F2" t="n">
-        <v>58.7450815282828</v>
+        <v>58.74508152828218</v>
       </c>
       <c r="G2" t="n">
-        <v>23.39242378872795</v>
+        <v>23.39242378872876</v>
       </c>
       <c r="H2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.853524954954693</v>
+        <v>7.85352495495448</v>
       </c>
       <c r="K2" t="n">
-        <v>58.74508152828285</v>
+        <v>58.74508152828231</v>
       </c>
       <c r="L2" t="n">
-        <v>23.3924237887279</v>
+        <v>23.39242378872864</v>
       </c>
       <c r="M2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.853524954954636</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="P2" t="n">
-        <v>58.74508152828285</v>
+        <v>58.74508152828231</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>31.34739782588302</v>
+        <v>31.34739782588298</v>
       </c>
       <c r="E3" t="n">
-        <v>527.3551746031994</v>
+        <v>527.3551746031997</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>3.548443483483368</v>
       </c>
       <c r="D4" t="n">
-        <v>31.59378134121306</v>
+        <v>31.593781341213</v>
       </c>
       <c r="E4" t="n">
         <v>612.6133389938318</v>
@@ -27039,10 +27039,10 @@
         <v>3.548443483483425</v>
       </c>
       <c r="L4" t="n">
-        <v>31.59378134121306</v>
+        <v>31.593781341213</v>
       </c>
       <c r="M4" t="n">
-        <v>612.6133389938318</v>
+        <v>612.6133389938321</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="K2" t="n">
-        <v>58.7450815282828</v>
+        <v>58.74508152828218</v>
       </c>
       <c r="L2" t="n">
-        <v>23.39242378872795</v>
+        <v>23.39242378872876</v>
       </c>
       <c r="M2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.853524954954693</v>
+        <v>7.85352495495448</v>
       </c>
       <c r="P2" t="n">
-        <v>58.74508152828285</v>
+        <v>58.74508152828231</v>
       </c>
     </row>
     <row r="3">
@@ -27261,7 +27261,7 @@
         <v>3.548443483483368</v>
       </c>
       <c r="L4" t="n">
-        <v>31.59378134121306</v>
+        <v>31.593781341213</v>
       </c>
       <c r="M4" t="n">
         <v>612.6133389938318</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27424,7 +27424,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27433,16 +27433,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>268.1516738991697</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27473,10 +27473,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>49.62980276224918</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -27512,19 +27512,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2638677010617</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27576,16 +27576,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>280.4959943593062</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,16 +27628,16 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>170.7252358559293</v>
       </c>
       <c r="H5" t="n">
-        <v>94.76081368083408</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>129.7218033690777</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
-        <v>83.18952610899248</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>104.6782363562706</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47.53846849266996</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27749,19 +27749,19 @@
         <v>200.1328769967189</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9408621947163</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>53.39466690771954</v>
       </c>
     </row>
     <row r="7">
@@ -27822,7 +27822,7 @@
         <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>223.9011423785076</v>
+        <v>86.81957671340956</v>
       </c>
       <c r="T7" t="n">
         <v>227.9172826158254</v>
@@ -27831,7 +27831,7 @@
         <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
-        <v>115.05607765873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>133.4823786206792</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>147.1011673447406</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194542</v>
       </c>
       <c r="I8" t="n">
         <v>205.0481221176458</v>
@@ -27907,16 +27907,16 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611361</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27950,7 +27950,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I9" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,10 +27983,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>25.00951096440244</v>
+        <v>185.6190528126295</v>
       </c>
     </row>
     <row r="10">
@@ -28062,10 +28062,10 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T10" t="n">
-        <v>227.6757534850358</v>
+        <v>52.54455953715794</v>
       </c>
       <c r="U10" t="n">
-        <v>111.1843906944439</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="C11" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="D11" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="E11" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="F11" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="G11" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="H11" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="I11" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="S11" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="T11" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="U11" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="V11" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="W11" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="X11" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="C13" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="D13" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="E13" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="F13" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="G13" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="H13" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="I13" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="J13" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="K13" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="L13" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="M13" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="N13" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="O13" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="P13" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="R13" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="S13" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="T13" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="U13" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="V13" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="W13" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="X13" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954551</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="C14" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="D14" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="E14" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="F14" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="G14" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="H14" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="I14" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>7.853524954954736</v>
       </c>
       <c r="S14" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="T14" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="U14" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="V14" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="W14" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="X14" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="Y14" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="C16" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="D16" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="E16" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="F16" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="G16" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="H16" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="I16" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="J16" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="K16" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="L16" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="M16" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="N16" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="O16" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="P16" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="R16" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="S16" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="T16" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="U16" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="V16" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="W16" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="X16" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.59860648323757</v>
+        <v>66.59860648323672</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="C17" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="D17" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="E17" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="F17" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="G17" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="H17" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="I17" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>7.853524954954736</v>
       </c>
       <c r="S17" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="T17" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="U17" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="V17" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="W17" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="X17" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Y17" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="C19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="D19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="E19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="F19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="G19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="H19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="I19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="J19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="K19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="L19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="M19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="N19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="O19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="P19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="R19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="S19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="T19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="U19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="V19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="W19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="X19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Y19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196549</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="C20" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="D20" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="E20" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="F20" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="G20" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="H20" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="I20" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>7.853524954954736</v>
       </c>
       <c r="S20" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="T20" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="U20" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="V20" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="W20" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196509</v>
       </c>
       <c r="X20" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Y20" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="C22" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="D22" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="E22" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="F22" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="G22" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="H22" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="I22" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="J22" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="K22" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="L22" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="M22" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="N22" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="O22" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="P22" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="R22" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="S22" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="T22" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="U22" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="V22" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="W22" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="X22" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Y22" t="n">
-        <v>89.99103027196558</v>
+        <v>89.99103027196553</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="C23" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="D23" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="E23" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="F23" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="G23" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="H23" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="I23" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>7.853524954954736</v>
       </c>
       <c r="S23" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="T23" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="U23" t="n">
-        <v>89.99103027196495</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="V23" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196509</v>
       </c>
       <c r="W23" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="X23" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Y23" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="C25" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="D25" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="E25" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="F25" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="G25" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="H25" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="I25" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="J25" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="K25" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="L25" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="M25" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="N25" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="O25" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="P25" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Q25" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="R25" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="S25" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="T25" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="U25" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="V25" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="W25" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="X25" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Y25" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196553</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>7.853524954954736</v>
       </c>
       <c r="S26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196583</v>
       </c>
       <c r="V26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X26" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y26" t="n">
-        <v>89.99103027196566</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="K28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="L28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="M28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="N28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="O28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="P28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Q28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="R28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="S28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y28" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="C29" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="D29" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="E29" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="F29" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="G29" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="H29" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="I29" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>7.853524954954736</v>
       </c>
       <c r="S29" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="T29" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="U29" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="V29" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="W29" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="X29" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="Y29" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="C31" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="D31" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="E31" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="F31" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="G31" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="H31" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="I31" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="J31" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="K31" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="L31" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="M31" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="N31" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="O31" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="P31" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="Q31" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="R31" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="S31" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="T31" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="U31" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="V31" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="W31" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="X31" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="Y31" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196558</v>
       </c>
     </row>
     <row r="32">
@@ -29815,7 +29815,7 @@
         <v>89.99103027196547</v>
       </c>
       <c r="Y32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196566</v>
       </c>
     </row>
     <row r="33">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="C35" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="D35" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="E35" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="F35" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="G35" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="H35" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="I35" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>7.853524954954736</v>
       </c>
       <c r="S35" t="n">
-        <v>89.99103027196566</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="T35" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="U35" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="V35" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="W35" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="X35" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="Y35" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="C37" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="D37" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="E37" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="F37" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="G37" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="H37" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="I37" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="J37" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="K37" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="L37" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="M37" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="N37" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="O37" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="P37" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="R37" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="S37" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="T37" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="U37" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="V37" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="W37" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="X37" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="Y37" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196543</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>89.99103027196463</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="C38" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="D38" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="E38" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="F38" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="G38" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="H38" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="I38" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>7.853524954954736</v>
       </c>
       <c r="S38" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="T38" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="U38" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="V38" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="W38" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="X38" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="Y38" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="C40" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="D40" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="E40" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="F40" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="G40" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="H40" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="I40" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="J40" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="K40" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="L40" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="M40" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="N40" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="O40" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="P40" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="R40" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="S40" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="T40" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="U40" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="V40" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="W40" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="X40" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="Y40" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="C41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="D41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="E41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="F41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="G41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196446</v>
       </c>
       <c r="H41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="I41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>7.853524954954736</v>
       </c>
       <c r="S41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="T41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="U41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="V41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="W41" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="X41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Y41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="C43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="D43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="E43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="F43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="G43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="H43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="I43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="J43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="K43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="L43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="M43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="N43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="O43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="P43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Q43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="R43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="S43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="T43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="U43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="V43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="W43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="X43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Y43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="C44" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="D44" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="E44" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="F44" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="G44" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="H44" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="I44" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>7.853524954954736</v>
       </c>
       <c r="S44" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="T44" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="U44" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="V44" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="W44" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="X44" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Y44" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196566</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="C46" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="D46" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="E46" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="F46" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="G46" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="H46" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="I46" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="J46" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="K46" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="L46" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="M46" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="N46" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="O46" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="P46" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Q46" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="R46" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="S46" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="T46" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="U46" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="V46" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="W46" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="X46" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Y46" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H8" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I8" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K8" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L8" t="n">
-        <v>22.21755819470702</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M8" t="n">
-        <v>24.72131435677233</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N8" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O8" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P8" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R8" t="n">
-        <v>8.84383625587038</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S8" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T8" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I9" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J9" t="n">
-        <v>7.116914878779991</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K9" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L9" t="n">
-        <v>16.35591992358773</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M9" t="n">
-        <v>19.08658709192331</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N9" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O9" t="n">
-        <v>17.92262575689049</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P9" t="n">
-        <v>14.38448725650263</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.615648792164377</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R9" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S9" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I10" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J10" t="n">
-        <v>4.464923682174389</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K10" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L10" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M10" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N10" t="n">
-        <v>9.664145601394052</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O10" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P10" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.288210368587926</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R10" t="n">
-        <v>2.839592713390063</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S10" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U10" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.2608097902405</v>
+        <v>2.260809790240501</v>
       </c>
       <c r="H11" t="n">
-        <v>23.15351826430052</v>
+        <v>23.15351826430053</v>
       </c>
       <c r="I11" t="n">
-        <v>87.15986943824694</v>
+        <v>87.15986943824699</v>
       </c>
       <c r="J11" t="n">
         <v>191.8834049344248</v>
       </c>
       <c r="K11" t="n">
-        <v>287.5834833553052</v>
+        <v>287.5834833553053</v>
       </c>
       <c r="L11" t="n">
-        <v>356.7727409733779</v>
+        <v>356.7727409733781</v>
       </c>
       <c r="M11" t="n">
-        <v>396.9784170805674</v>
+        <v>396.9784170805676</v>
       </c>
       <c r="N11" t="n">
-        <v>403.4019428970882</v>
+        <v>403.4019428970884</v>
       </c>
       <c r="O11" t="n">
-        <v>380.9210155453843</v>
+        <v>380.9210155453844</v>
       </c>
       <c r="P11" t="n">
-        <v>325.1072738488219</v>
+        <v>325.107273848822</v>
       </c>
       <c r="Q11" t="n">
-        <v>244.1420232358339</v>
+        <v>244.142023235834</v>
       </c>
       <c r="R11" t="n">
-        <v>142.0155929861949</v>
+        <v>142.015592986195</v>
       </c>
       <c r="S11" t="n">
-        <v>51.51820309510543</v>
+        <v>51.51820309510546</v>
       </c>
       <c r="T11" t="n">
-        <v>9.896694856777792</v>
+        <v>9.896694856777795</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1808647832192399</v>
+        <v>0.18086478321924</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.209639879749906</v>
+        <v>1.209639879749907</v>
       </c>
       <c r="H12" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I12" t="n">
-        <v>41.6476888422665</v>
+        <v>41.64768884226653</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2844414460207</v>
+        <v>114.2844414460208</v>
       </c>
       <c r="K12" t="n">
-        <v>195.3303133892644</v>
+        <v>195.3303133892645</v>
       </c>
       <c r="L12" t="n">
-        <v>262.6457116097329</v>
+        <v>262.645711609733</v>
       </c>
       <c r="M12" t="n">
-        <v>306.4951572506669</v>
+        <v>306.495157250667</v>
       </c>
       <c r="N12" t="n">
-        <v>314.6071720582881</v>
+        <v>314.6071720582882</v>
       </c>
       <c r="O12" t="n">
-        <v>287.8040989333033</v>
+        <v>287.8040989333034</v>
       </c>
       <c r="P12" t="n">
-        <v>230.9881626515413</v>
+        <v>230.9881626515414</v>
       </c>
       <c r="Q12" t="n">
-        <v>154.4094695624617</v>
+        <v>154.4094695624618</v>
       </c>
       <c r="R12" t="n">
-        <v>75.10378130587577</v>
+        <v>75.1037813058758</v>
       </c>
       <c r="S12" t="n">
-        <v>22.46853022254758</v>
+        <v>22.46853022254759</v>
       </c>
       <c r="T12" t="n">
-        <v>4.875697585483172</v>
+        <v>4.875697585483174</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07958157103617806</v>
+        <v>0.07958157103617809</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,13 +31911,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H13" t="n">
-        <v>9.016461536807114</v>
+        <v>9.016461536807117</v>
       </c>
       <c r="I13" t="n">
-        <v>30.49739750895493</v>
+        <v>30.49739750895494</v>
       </c>
       <c r="J13" t="n">
-        <v>71.69838586068391</v>
+        <v>71.69838586068394</v>
       </c>
       <c r="K13" t="n">
         <v>117.8224728429395</v>
@@ -31926,10 +31926,10 @@
         <v>150.7722003813328</v>
       </c>
       <c r="M13" t="n">
-        <v>158.9681454797187</v>
+        <v>158.9681454797188</v>
       </c>
       <c r="N13" t="n">
-        <v>155.1882382914868</v>
+        <v>155.1882382914869</v>
       </c>
       <c r="O13" t="n">
         <v>143.3414560064182</v>
@@ -31938,19 +31938,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.91884173367103</v>
+        <v>84.91884173367106</v>
       </c>
       <c r="R13" t="n">
-        <v>45.59858769023307</v>
+        <v>45.59858769023308</v>
       </c>
       <c r="S13" t="n">
         <v>17.67337092644092</v>
       </c>
       <c r="T13" t="n">
-        <v>4.333064337729385</v>
+        <v>4.333064337729387</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05531571494973692</v>
+        <v>0.05531571494973694</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34784,10 +34784,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N3" t="n">
         <v>217.7067518141195</v>
-      </c>
-      <c r="N3" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35188,10 +35188,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P8" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>269.5389906563205</v>
       </c>
       <c r="N9" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O9" t="n">
-        <v>269.1887005891756</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P9" t="n">
-        <v>198.8728484821096</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q9" t="n">
-        <v>79.71116244199196</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,19 +35334,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M10" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N10" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O10" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P10" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>179.9341155798123</v>
       </c>
       <c r="K11" t="n">
-        <v>391.6390448814894</v>
+        <v>391.6390448814895</v>
       </c>
       <c r="L11" t="n">
-        <v>538.6675405538411</v>
+        <v>538.6675405538413</v>
       </c>
       <c r="M11" t="n">
-        <v>616.1457173461272</v>
+        <v>616.1457173461273</v>
       </c>
       <c r="N11" t="n">
-        <v>611.3358037124815</v>
+        <v>611.3358037124817</v>
       </c>
       <c r="O11" t="n">
-        <v>531.6229853864429</v>
+        <v>531.622985386443</v>
       </c>
       <c r="P11" t="n">
-        <v>415.672986265035</v>
+        <v>415.6729862650351</v>
       </c>
       <c r="Q11" t="n">
-        <v>234.1513240212891</v>
+        <v>234.1513240212892</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>57.48887441490544</v>
+        <v>57.48887441490552</v>
       </c>
       <c r="L12" t="n">
-        <v>124.0913318298587</v>
+        <v>124.0913318298588</v>
       </c>
       <c r="M12" t="n">
-        <v>594.051890244862</v>
+        <v>594.0518902448615</v>
       </c>
       <c r="N12" t="n">
         <v>662.6078343185084</v>
       </c>
       <c r="O12" t="n">
-        <v>539.0701737655884</v>
+        <v>539.0701737655885</v>
       </c>
       <c r="P12" t="n">
-        <v>415.4765238771482</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q12" t="n">
         <v>224.5049832122893</v>
@@ -35568,25 +35568,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>103.4065059720114</v>
+        <v>103.4065059720112</v>
       </c>
       <c r="L13" t="n">
-        <v>186.2157505966037</v>
+        <v>186.2157505966035</v>
       </c>
       <c r="M13" t="n">
-        <v>206.4055473965141</v>
+        <v>206.405547396514</v>
       </c>
       <c r="N13" t="n">
-        <v>207.1739356256702</v>
+        <v>207.17393562567</v>
       </c>
       <c r="O13" t="n">
-        <v>175.7801088754126</v>
+        <v>175.7801088754125</v>
       </c>
       <c r="P13" t="n">
-        <v>127.7854628350647</v>
+        <v>127.7854628350645</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.610323436931409</v>
+        <v>6.610323436931225</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>124.0913318298588</v>
       </c>
       <c r="M15" t="n">
-        <v>630.0661870786486</v>
+        <v>594.0518902448619</v>
       </c>
       <c r="N15" t="n">
-        <v>626.5935374847217</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O15" t="n">
         <v>539.0701737655884</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>44.93781222724873</v>
+        <v>44.93781222724787</v>
       </c>
       <c r="K16" t="n">
-        <v>162.1515875002942</v>
+        <v>162.1515875002934</v>
       </c>
       <c r="L16" t="n">
-        <v>244.9608321248865</v>
+        <v>244.9608321248857</v>
       </c>
       <c r="M16" t="n">
-        <v>265.1506289247969</v>
+        <v>265.1506289247961</v>
       </c>
       <c r="N16" t="n">
-        <v>265.9190171539531</v>
+        <v>265.9190171539522</v>
       </c>
       <c r="O16" t="n">
-        <v>234.5251904036954</v>
+        <v>234.5251904036946</v>
       </c>
       <c r="P16" t="n">
-        <v>186.5305443633475</v>
+        <v>186.5305443633467</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.35540496521423</v>
+        <v>65.35540496521338</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>68.33023601597667</v>
+        <v>68.33023601597664</v>
       </c>
       <c r="K19" t="n">
         <v>185.5440112890221</v>
       </c>
       <c r="L19" t="n">
-        <v>268.3532559136145</v>
+        <v>268.3532559136144</v>
       </c>
       <c r="M19" t="n">
         <v>288.5430527135248</v>
@@ -36057,10 +36057,10 @@
         <v>257.9176141924233</v>
       </c>
       <c r="P19" t="n">
-        <v>209.9229681520755</v>
+        <v>209.9229681520754</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.74782875394217</v>
+        <v>88.74782875394214</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>68.33023601597674</v>
+        <v>68.33023601597668</v>
       </c>
       <c r="K22" t="n">
         <v>185.5440112890222</v>
@@ -36285,19 +36285,19 @@
         <v>268.3532559136145</v>
       </c>
       <c r="M22" t="n">
-        <v>288.543052713525</v>
+        <v>288.5430527135249</v>
       </c>
       <c r="N22" t="n">
         <v>289.311440942681</v>
       </c>
       <c r="O22" t="n">
-        <v>257.9176141924235</v>
+        <v>257.9176141924234</v>
       </c>
       <c r="P22" t="n">
-        <v>209.9229681520756</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.74782875394224</v>
+        <v>88.74782875394219</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>321.9541114274841</v>
+        <v>57.4888744149055</v>
       </c>
       <c r="L24" t="n">
-        <v>289.3168617334933</v>
+        <v>124.0913318298588</v>
       </c>
       <c r="M24" t="n">
-        <v>164.3611233286487</v>
+        <v>594.0518902448619</v>
       </c>
       <c r="N24" t="n">
         <v>662.6078343185084</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>68.33023601597669</v>
+        <v>68.33023601597668</v>
       </c>
       <c r="K25" t="n">
         <v>185.5440112890222</v>
@@ -36534,7 +36534,7 @@
         <v>209.9229681520755</v>
       </c>
       <c r="Q25" t="n">
-        <v>88.7478287539422</v>
+        <v>88.74782875394219</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>68.33023601597662</v>
+        <v>68.33023601597661</v>
       </c>
       <c r="K28" t="n">
         <v>185.5440112890221</v>
@@ -36771,7 +36771,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.74782875394213</v>
+        <v>88.74782875394212</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>124.0913318298588</v>
       </c>
       <c r="M30" t="n">
-        <v>594.0518902448619</v>
+        <v>630.0661870786486</v>
       </c>
       <c r="N30" t="n">
-        <v>662.6078343185084</v>
+        <v>626.5935374847217</v>
       </c>
       <c r="O30" t="n">
         <v>539.0701737655884</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.33023601597667</v>
+        <v>68.33023601597674</v>
       </c>
       <c r="K31" t="n">
-        <v>185.5440112890221</v>
+        <v>185.5440112890222</v>
       </c>
       <c r="L31" t="n">
         <v>268.3532559136145</v>
       </c>
       <c r="M31" t="n">
-        <v>288.5430527135248</v>
+        <v>288.543052713525</v>
       </c>
       <c r="N31" t="n">
         <v>289.311440942681</v>
       </c>
       <c r="O31" t="n">
-        <v>257.9176141924233</v>
+        <v>257.9176141924235</v>
       </c>
       <c r="P31" t="n">
-        <v>209.9229681520755</v>
+        <v>209.9229681520756</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.74782875394217</v>
+        <v>88.74782875394224</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>124.0913318298588</v>
       </c>
       <c r="M33" t="n">
-        <v>594.0518902448619</v>
+        <v>630.0661870786486</v>
       </c>
       <c r="N33" t="n">
-        <v>662.6078343185084</v>
+        <v>626.5935374847217</v>
       </c>
       <c r="O33" t="n">
         <v>539.0701737655884</v>
@@ -37315,7 +37315,7 @@
         <v>616.1457173461273</v>
       </c>
       <c r="N35" t="n">
-        <v>611.3358037124816</v>
+        <v>611.3358037124837</v>
       </c>
       <c r="O35" t="n">
         <v>531.622985386443</v>
@@ -37388,10 +37388,10 @@
         <v>57.4888744149055</v>
       </c>
       <c r="L36" t="n">
-        <v>124.0913318298588</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M36" t="n">
-        <v>594.0518902448619</v>
+        <v>223.2115449414027</v>
       </c>
       <c r="N36" t="n">
         <v>662.6078343185084</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.33023601597662</v>
+        <v>68.33023601597658</v>
       </c>
       <c r="K37" t="n">
         <v>185.5440112890221</v>
@@ -37482,7 +37482,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.74782875394213</v>
+        <v>88.74782875394209</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>538.6675405538413</v>
       </c>
       <c r="M38" t="n">
-        <v>616.1457173461273</v>
+        <v>616.1457173461283</v>
       </c>
       <c r="N38" t="n">
         <v>611.3358037124816</v>
@@ -37628,7 +37628,7 @@
         <v>124.0913318298588</v>
       </c>
       <c r="M39" t="n">
-        <v>594.0518902448619</v>
+        <v>594.0518902448617</v>
       </c>
       <c r="N39" t="n">
         <v>662.6078343185084</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.33023601597667</v>
+        <v>68.33023601597658</v>
       </c>
       <c r="K40" t="n">
         <v>185.5440112890221</v>
       </c>
       <c r="L40" t="n">
-        <v>268.3532559136145</v>
+        <v>268.3532559136144</v>
       </c>
       <c r="M40" t="n">
         <v>288.5430527135248</v>
       </c>
       <c r="N40" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O40" t="n">
         <v>257.9176141924233</v>
       </c>
       <c r="P40" t="n">
-        <v>209.9229681520755</v>
+        <v>209.9229681520754</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.74782875394217</v>
+        <v>88.74782875394209</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>415.672986265035</v>
       </c>
       <c r="Q41" t="n">
-        <v>234.1513240212892</v>
+        <v>234.1513240212899</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>124.0913318298588</v>
       </c>
       <c r="M42" t="n">
-        <v>594.0518902448619</v>
+        <v>630.0661870786486</v>
       </c>
       <c r="N42" t="n">
-        <v>662.6078343185084</v>
+        <v>626.5935374847215</v>
       </c>
       <c r="O42" t="n">
         <v>539.0701737655884</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.33023601597661</v>
+        <v>68.33023601597665</v>
       </c>
       <c r="K43" t="n">
         <v>185.5440112890221</v>
@@ -37947,16 +37947,16 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N43" t="n">
-        <v>289.3114409426809</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O43" t="n">
         <v>257.9176141924233</v>
       </c>
       <c r="P43" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q43" t="n">
-        <v>88.74782875394212</v>
+        <v>88.74782875394216</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>179.9341155798122</v>
+        <v>179.9341155798123</v>
       </c>
       <c r="K44" t="n">
         <v>391.6390448814894</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>68.33023601597661</v>
+        <v>68.33023601597665</v>
       </c>
       <c r="K46" t="n">
         <v>185.5440112890221</v>
@@ -38184,16 +38184,16 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N46" t="n">
-        <v>289.3114409426809</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O46" t="n">
         <v>257.9176141924233</v>
       </c>
       <c r="P46" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q46" t="n">
-        <v>88.74782875394212</v>
+        <v>88.74782875394216</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
